--- a/output/Final.xlsx
+++ b/output/Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C30433D-2758-4560-B6E4-907E8025834D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D612ED6-220E-4E70-B9E0-CBADD1E81B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1657,15 +1657,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1688,18 +1694,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,7 +2025,7 @@
   <dimension ref="A1:V804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2:H804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,10 +2199,10 @@
       <c r="F3">
         <v>2024</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0.432</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0.17899999999999999</v>
       </c>
       <c r="I3">
@@ -2317,10 +2335,10 @@
       <c r="F5">
         <v>2024</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.441</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>0.19400000000000001</v>
       </c>
       <c r="I5">
@@ -2450,10 +2468,10 @@
       <c r="F7">
         <v>2024</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>0.121</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I7">
@@ -2583,10 +2601,10 @@
       <c r="F9">
         <v>2024</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>0.38300000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>0.10299999999999999</v>
       </c>
       <c r="I9">
@@ -2716,10 +2734,10 @@
       <c r="F11">
         <v>2024</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>0.183</v>
       </c>
       <c r="I11">
@@ -2852,10 +2870,10 @@
       <c r="F13">
         <v>2024</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>0.13400000000000001</v>
       </c>
       <c r="I13">
@@ -2988,10 +3006,10 @@
       <c r="F15">
         <v>2024</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>0.158</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>0.435</v>
       </c>
       <c r="I15">
@@ -3124,10 +3142,10 @@
       <c r="F17">
         <v>2024</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>0.25</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0.13300000000000001</v>
       </c>
       <c r="I17">
@@ -3257,10 +3275,10 @@
       <c r="F19">
         <v>2024</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I19">
@@ -3393,10 +3411,10 @@
       <c r="F21">
         <v>2024</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>0.30099999999999999</v>
       </c>
       <c r="I21">
@@ -3529,10 +3547,10 @@
       <c r="F23">
         <v>2024</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>0.156</v>
       </c>
       <c r="I23">
@@ -3662,10 +3680,10 @@
       <c r="F25">
         <v>2024</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>0.03</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="I25">
@@ -3798,10 +3816,10 @@
       <c r="F27">
         <v>2024</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>0.42899999999999999</v>
       </c>
       <c r="I27">
@@ -3931,10 +3949,10 @@
       <c r="F29">
         <v>2024</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>0.02</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>0.30099999999999999</v>
       </c>
       <c r="I29">
@@ -4064,10 +4082,10 @@
       <c r="F31">
         <v>2024</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>0.371</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>0.39500000000000002</v>
       </c>
       <c r="I31">
@@ -4197,10 +4215,10 @@
       <c r="F33">
         <v>2024</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>0.439</v>
       </c>
       <c r="I33">
@@ -4333,10 +4351,10 @@
       <c r="F35">
         <v>2024</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>0.33</v>
       </c>
       <c r="I35">
@@ -4469,10 +4487,10 @@
       <c r="F37">
         <v>2024</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>0.15</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>0.36899999999999999</v>
       </c>
       <c r="I37">
@@ -4605,10 +4623,10 @@
       <c r="F39">
         <v>2024</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>0.42199999999999999</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>0.221</v>
       </c>
       <c r="I39">
@@ -4738,10 +4756,10 @@
       <c r="F41">
         <v>2024</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <v>0.28799999999999998</v>
       </c>
       <c r="I41">
@@ -4871,10 +4889,10 @@
       <c r="F43">
         <v>2024</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>0.251</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="5">
         <v>0.02</v>
       </c>
       <c r="I43">
@@ -5001,10 +5019,10 @@
       <c r="F45">
         <v>2024</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="5">
         <v>0.11700000000000001</v>
       </c>
       <c r="I45">
@@ -5134,10 +5152,10 @@
       <c r="F47">
         <v>2024</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>0.16200000000000001</v>
       </c>
       <c r="I47">
@@ -5270,10 +5288,10 @@
       <c r="F49">
         <v>2024</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>0.191</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="I49">
@@ -5403,10 +5421,10 @@
       <c r="F51">
         <v>2024</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="5">
         <v>0.24299999999999999</v>
       </c>
       <c r="I51">
@@ -5539,10 +5557,10 @@
       <c r="F53">
         <v>2024</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>0.31</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I53">
@@ -5672,10 +5690,10 @@
       <c r="F55">
         <v>2024</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>0.42</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="5">
         <v>0.14599999999999999</v>
       </c>
       <c r="I55">
@@ -5808,10 +5826,10 @@
       <c r="F57">
         <v>2024</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I57">
@@ -5944,10 +5962,10 @@
       <c r="F59">
         <v>2024</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="5">
         <v>0.245</v>
       </c>
       <c r="I59">
@@ -6077,10 +6095,10 @@
       <c r="F61">
         <v>2024</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <v>0.25</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="5">
         <v>0.11700000000000001</v>
       </c>
       <c r="I61">
@@ -6213,10 +6231,10 @@
       <c r="F63">
         <v>2024</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="5">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="5">
         <v>0.34</v>
       </c>
       <c r="I63">
@@ -6349,10 +6367,10 @@
       <c r="F65">
         <v>2024</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="5">
         <v>0.20499999999999999</v>
       </c>
       <c r="I65">
@@ -6485,10 +6503,10 @@
       <c r="F67">
         <v>2024</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>0.107</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="5">
         <v>0.154</v>
       </c>
       <c r="I67">
@@ -6618,10 +6636,10 @@
       <c r="F69">
         <v>2024</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <v>6.2E-2</v>
       </c>
       <c r="I69">
@@ -6754,10 +6772,10 @@
       <c r="F71">
         <v>2024</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>0.157</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="5">
         <v>0.17499999999999999</v>
       </c>
       <c r="I71">
@@ -6884,10 +6902,10 @@
       <c r="F73">
         <v>2024</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="5">
         <v>0.41799999999999998</v>
       </c>
       <c r="I73">
@@ -7017,10 +7035,10 @@
       <c r="F75">
         <v>2024</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="5">
         <v>0.12</v>
       </c>
       <c r="I75">
@@ -7150,10 +7168,10 @@
       <c r="F77">
         <v>2024</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="5">
         <v>0.126</v>
       </c>
       <c r="I77">
@@ -7283,10 +7301,10 @@
       <c r="F79">
         <v>2024</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <v>0.36799999999999999</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="5">
         <v>0.11</v>
       </c>
       <c r="I79">
@@ -7416,10 +7434,10 @@
       <c r="F81">
         <v>2024</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="5">
         <v>0.27</v>
       </c>
       <c r="I81">
@@ -7549,10 +7567,10 @@
       <c r="F83">
         <v>2024</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I83">
@@ -7682,10 +7700,10 @@
       <c r="F85">
         <v>2024</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>0.312</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="5">
         <v>0.14599999999999999</v>
       </c>
       <c r="I85">
@@ -7818,10 +7836,10 @@
       <c r="F87">
         <v>2024</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>0.13</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I87">
@@ -7948,10 +7966,10 @@
       <c r="F89">
         <v>2024</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="5">
         <v>0.39600000000000002</v>
       </c>
       <c r="I89">
@@ -8084,10 +8102,10 @@
       <c r="F91">
         <v>2024</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>0.39800000000000002</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="5">
         <v>0.159</v>
       </c>
       <c r="I91">
@@ -8217,10 +8235,10 @@
       <c r="F93">
         <v>2024</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="5">
         <v>0.19</v>
       </c>
       <c r="I93">
@@ -8353,10 +8371,10 @@
       <c r="F95">
         <v>2024</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="5">
         <v>5.5E-2</v>
       </c>
       <c r="I95">
@@ -8489,10 +8507,10 @@
       <c r="F97">
         <v>2024</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="5">
         <v>0.29399999999999998</v>
       </c>
       <c r="I97">
@@ -8619,10 +8637,10 @@
       <c r="F99">
         <v>2024</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>0.252</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="I99">
@@ -8752,10 +8770,10 @@
       <c r="F101">
         <v>2024</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="5">
         <v>0.11899999999999999</v>
       </c>
       <c r="I101">
@@ -8888,10 +8906,10 @@
       <c r="F103">
         <v>2024</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="5">
         <v>0.06</v>
       </c>
       <c r="I103">
@@ -9024,10 +9042,10 @@
       <c r="F105">
         <v>2024</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="I105">
@@ -9160,10 +9178,10 @@
       <c r="F107">
         <v>2024</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="5">
         <v>0.44700000000000001</v>
       </c>
       <c r="I107">
@@ -9296,10 +9314,10 @@
       <c r="F109">
         <v>2024</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="5">
         <v>0.25600000000000001</v>
       </c>
       <c r="I109">
@@ -9429,10 +9447,10 @@
       <c r="F111">
         <v>2024</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="I111">
@@ -9559,10 +9577,10 @@
       <c r="F113">
         <v>2024</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="5">
         <v>0.32100000000000001</v>
       </c>
       <c r="I113">
@@ -9692,10 +9710,10 @@
       <c r="F115">
         <v>2024</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="5">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="I115">
@@ -9828,10 +9846,10 @@
       <c r="F117">
         <v>2024</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="5">
         <v>0.245</v>
       </c>
       <c r="I117">
@@ -9958,10 +9976,10 @@
       <c r="F119">
         <v>2024</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>0.30099999999999999</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="I119">
@@ -10094,10 +10112,10 @@
       <c r="F121">
         <v>2024</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>0.105</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I121">
@@ -10230,10 +10248,10 @@
       <c r="F123">
         <v>2024</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <v>0.111</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I123">
@@ -10366,10 +10384,10 @@
       <c r="F125">
         <v>2024</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="5">
         <v>0.17599999999999999</v>
       </c>
       <c r="I125">
@@ -10502,10 +10520,10 @@
       <c r="F127">
         <v>2024</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="5">
         <v>0.08</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="5">
         <v>0.109</v>
       </c>
       <c r="I127">
@@ -10638,10 +10656,10 @@
       <c r="F129">
         <v>2024</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="5">
         <v>0.438</v>
       </c>
-      <c r="H129" s="4">
+      <c r="H129" s="5">
         <v>0.32400000000000001</v>
       </c>
       <c r="I129">
@@ -10768,10 +10786,10 @@
       <c r="F131">
         <v>2024</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="5">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I131">
@@ -10904,10 +10922,10 @@
       <c r="F133">
         <v>2024</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="5">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="5">
         <v>0.189</v>
       </c>
       <c r="I133">
@@ -11040,10 +11058,10 @@
       <c r="F135">
         <v>2024</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="5">
         <v>0.315</v>
       </c>
       <c r="I135">
@@ -11173,10 +11191,10 @@
       <c r="F137">
         <v>2024</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <v>0.34</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="I137">
@@ -11306,10 +11324,10 @@
       <c r="F139">
         <v>2024</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <v>0.35599999999999998</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="5">
         <v>0.27</v>
       </c>
       <c r="I139">
@@ -11442,10 +11460,10 @@
       <c r="F141">
         <v>2024</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>0.35</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="5">
         <v>0.443</v>
       </c>
       <c r="I141">
@@ -11575,10 +11593,10 @@
       <c r="F143">
         <v>2024</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="5">
         <v>0.36</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="5">
         <v>0.41199999999999998</v>
       </c>
       <c r="I143">
@@ -11708,10 +11726,10 @@
       <c r="F145">
         <v>2024</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="5">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="5">
         <v>0.28599999999999998</v>
       </c>
       <c r="I145">
@@ -11841,10 +11859,10 @@
       <c r="F147">
         <v>2024</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="5">
         <v>0.28699999999999998</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="5">
         <v>0.374</v>
       </c>
       <c r="I147">
@@ -11977,10 +11995,10 @@
       <c r="F149">
         <v>2024</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I149">
@@ -12113,10 +12131,10 @@
       <c r="F151">
         <v>2024</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="5">
         <v>0.248</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="5">
         <v>0.30399999999999999</v>
       </c>
       <c r="I151">
@@ -12249,10 +12267,10 @@
       <c r="F153">
         <v>2024</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H153" s="4">
+      <c r="H153" s="5">
         <v>0.215</v>
       </c>
       <c r="I153">
@@ -12385,10 +12403,10 @@
       <c r="F155">
         <v>2024</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H155" s="4">
+      <c r="H155" s="5">
         <v>0.21199999999999999</v>
       </c>
       <c r="I155">
@@ -12521,10 +12539,10 @@
       <c r="F157">
         <v>2024</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="5">
         <v>0.17499999999999999</v>
       </c>
       <c r="I157">
@@ -12654,10 +12672,10 @@
       <c r="F159">
         <v>2024</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="5">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H159" s="4">
+      <c r="H159" s="5">
         <v>0.32700000000000001</v>
       </c>
       <c r="I159">
@@ -12787,10 +12805,10 @@
       <c r="F161">
         <v>2024</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="I161">
@@ -12920,10 +12938,10 @@
       <c r="F163">
         <v>2024</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="5">
         <v>0.108</v>
       </c>
-      <c r="H163" s="4">
+      <c r="H163" s="5">
         <v>0.14599999999999999</v>
       </c>
       <c r="I163">
@@ -13056,10 +13074,10 @@
       <c r="F165">
         <v>2024</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="5">
         <v>0.36</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="5">
         <v>0.36799999999999999</v>
       </c>
       <c r="I165">
@@ -13192,10 +13210,10 @@
       <c r="F167">
         <v>2024</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I167">
@@ -13328,10 +13346,10 @@
       <c r="F169">
         <v>2024</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I169">
@@ -13464,10 +13482,10 @@
       <c r="F171">
         <v>2024</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="5">
         <v>0.39200000000000002</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="5">
         <v>9.4E-2</v>
       </c>
       <c r="I171">
@@ -13597,10 +13615,10 @@
       <c r="F173">
         <v>2024</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="5">
         <v>0.375</v>
       </c>
-      <c r="H173" s="4">
+      <c r="H173" s="5">
         <v>0.42699999999999999</v>
       </c>
       <c r="I173">
@@ -13733,10 +13751,10 @@
       <c r="F175">
         <v>2024</v>
       </c>
-      <c r="G175" s="4">
+      <c r="G175" s="5">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H175" s="4">
+      <c r="H175" s="5">
         <v>0.42799999999999999</v>
       </c>
       <c r="I175">
@@ -13866,10 +13884,10 @@
       <c r="F177">
         <v>2024</v>
       </c>
-      <c r="G177" s="4">
+      <c r="G177" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H177" s="4">
+      <c r="H177" s="5">
         <v>0.38500000000000001</v>
       </c>
       <c r="I177">
@@ -13999,10 +14017,10 @@
       <c r="F179">
         <v>2024</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H179" s="4">
+      <c r="H179" s="5">
         <v>0.23899999999999999</v>
       </c>
       <c r="I179">
@@ -14132,10 +14150,10 @@
       <c r="F181">
         <v>2024</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="5">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H181" s="4">
+      <c r="H181" s="5">
         <v>0.17199999999999999</v>
       </c>
       <c r="I181">
@@ -14265,10 +14283,10 @@
       <c r="F183">
         <v>2024</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="5">
         <v>0.377</v>
       </c>
-      <c r="H183" s="4">
+      <c r="H183" s="5">
         <v>0.26</v>
       </c>
       <c r="I183">
@@ -14401,10 +14419,10 @@
       <c r="F185">
         <v>2024</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H185" s="4">
+      <c r="H185" s="5">
         <v>0.40799999999999997</v>
       </c>
       <c r="I185">
@@ -14537,10 +14555,10 @@
       <c r="F187">
         <v>2024</v>
       </c>
-      <c r="G187" s="4">
+      <c r="G187" s="5">
         <v>0.28199999999999997</v>
       </c>
-      <c r="H187" s="4">
+      <c r="H187" s="5">
         <v>0.16200000000000001</v>
       </c>
       <c r="I187">
@@ -14673,10 +14691,10 @@
       <c r="F189">
         <v>2024</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="H189" s="4">
+      <c r="H189" s="5">
         <v>0.309</v>
       </c>
       <c r="I189">
@@ -14809,10 +14827,10 @@
       <c r="F191">
         <v>2024</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="5">
         <v>0.39700000000000002</v>
       </c>
-      <c r="H191" s="4">
+      <c r="H191" s="5">
         <v>0.2</v>
       </c>
       <c r="I191">
@@ -14945,10 +14963,10 @@
       <c r="F193">
         <v>2024</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="5">
         <v>0.125</v>
       </c>
-      <c r="H193" s="4">
+      <c r="H193" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I193">
@@ -15081,10 +15099,10 @@
       <c r="F195">
         <v>2024</v>
       </c>
-      <c r="G195" s="4">
+      <c r="G195" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H195" s="4">
+      <c r="H195" s="5">
         <v>0.41499999999999998</v>
       </c>
       <c r="I195">
@@ -15217,10 +15235,10 @@
       <c r="F197">
         <v>2024</v>
       </c>
-      <c r="G197" s="4">
+      <c r="G197" s="5">
         <v>0.371</v>
       </c>
-      <c r="H197" s="4">
+      <c r="H197" s="5">
         <v>0.17100000000000001</v>
       </c>
       <c r="I197">
@@ -15353,10 +15371,10 @@
       <c r="F199">
         <v>2024</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="H199" s="4">
+      <c r="H199" s="5">
         <v>0.30199999999999999</v>
       </c>
       <c r="I199">
@@ -15486,10 +15504,10 @@
       <c r="F201">
         <v>2024</v>
       </c>
-      <c r="G201" s="4">
+      <c r="G201" s="5">
         <v>0.377</v>
       </c>
-      <c r="H201" s="4">
+      <c r="H201" s="5">
         <v>1.4E-2</v>
       </c>
       <c r="I201">
@@ -15619,10 +15637,10 @@
       <c r="F203">
         <v>2024</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H203" s="4">
+      <c r="H203" s="5">
         <v>0.11600000000000001</v>
       </c>
       <c r="I203">
@@ -15752,10 +15770,10 @@
       <c r="F205">
         <v>2024</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H205" s="4">
+      <c r="H205" s="5">
         <v>0.27</v>
       </c>
       <c r="I205">
@@ -15888,10 +15906,10 @@
       <c r="F207">
         <v>2024</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="5">
         <v>0.123</v>
       </c>
-      <c r="H207" s="4">
+      <c r="H207" s="5">
         <v>0.27100000000000002</v>
       </c>
       <c r="I207">
@@ -16021,10 +16039,10 @@
       <c r="F209">
         <v>2024</v>
       </c>
-      <c r="G209" s="4">
+      <c r="G209" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H209" s="4">
+      <c r="H209" s="5">
         <v>0.27100000000000002</v>
       </c>
       <c r="I209">
@@ -16154,10 +16172,10 @@
       <c r="F211">
         <v>2024</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H211" s="4">
+      <c r="H211" s="5">
         <v>0.23899999999999999</v>
       </c>
       <c r="I211">
@@ -16287,10 +16305,10 @@
       <c r="F213">
         <v>2024</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="5">
         <v>0.214</v>
       </c>
-      <c r="H213" s="4">
+      <c r="H213" s="5">
         <v>0.40500000000000003</v>
       </c>
       <c r="I213">
@@ -16417,10 +16435,10 @@
       <c r="F215">
         <v>2024</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="5">
         <v>0.16</v>
       </c>
-      <c r="H215" s="4">
+      <c r="H215" s="5">
         <v>0.28799999999999998</v>
       </c>
       <c r="I215">
@@ -16553,10 +16571,10 @@
       <c r="F217">
         <v>2024</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H217" s="4">
+      <c r="H217" s="5">
         <v>0.378</v>
       </c>
       <c r="I217">
@@ -16689,10 +16707,10 @@
       <c r="F219">
         <v>2024</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="5">
         <v>0.34</v>
       </c>
-      <c r="H219" s="4">
+      <c r="H219" s="5">
         <v>0.248</v>
       </c>
       <c r="I219">
@@ -16822,10 +16840,10 @@
       <c r="F221">
         <v>2024</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H221" s="4">
+      <c r="H221" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I221">
@@ -16958,10 +16976,10 @@
       <c r="F223">
         <v>2024</v>
       </c>
-      <c r="G223" s="4">
+      <c r="G223" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H223" s="4">
+      <c r="H223" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I223">
@@ -17091,10 +17109,10 @@
       <c r="F225">
         <v>2024</v>
       </c>
-      <c r="G225" s="4">
+      <c r="G225" s="5">
         <v>0.25</v>
       </c>
-      <c r="H225" s="4">
+      <c r="H225" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I225">
@@ -17227,10 +17245,10 @@
       <c r="F227">
         <v>2024</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="5">
         <v>0.23</v>
       </c>
-      <c r="H227" s="4">
+      <c r="H227" s="5">
         <v>0.30399999999999999</v>
       </c>
       <c r="I227">
@@ -17360,10 +17378,10 @@
       <c r="F229">
         <v>2024</v>
       </c>
-      <c r="G229" s="4">
+      <c r="G229" s="5">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H229" s="4">
+      <c r="H229" s="5">
         <v>0.14599999999999999</v>
       </c>
       <c r="I229">
@@ -17496,10 +17514,10 @@
       <c r="F231">
         <v>2024</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="5">
         <v>0.29699999999999999</v>
       </c>
-      <c r="H231" s="4">
+      <c r="H231" s="5">
         <v>0.23599999999999999</v>
       </c>
       <c r="I231">
@@ -17626,10 +17644,10 @@
       <c r="F233">
         <v>2024</v>
       </c>
-      <c r="G233" s="4">
+      <c r="G233" s="5">
         <v>0.11</v>
       </c>
-      <c r="H233" s="4">
+      <c r="H233" s="5">
         <v>0.375</v>
       </c>
       <c r="I233">
@@ -17762,10 +17780,10 @@
       <c r="F235">
         <v>2024</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H235" s="4">
+      <c r="H235" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I235">
@@ -17895,10 +17913,10 @@
       <c r="F237">
         <v>2024</v>
       </c>
-      <c r="G237" s="4">
+      <c r="G237" s="5">
         <v>0.152</v>
       </c>
-      <c r="H237" s="4">
+      <c r="H237" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I237">
@@ -18031,10 +18049,10 @@
       <c r="F239">
         <v>2024</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H239" s="4">
+      <c r="H239" s="5">
         <v>0.34599999999999997</v>
       </c>
       <c r="I239">
@@ -18167,10 +18185,10 @@
       <c r="F241">
         <v>2024</v>
       </c>
-      <c r="G241" s="4">
+      <c r="G241" s="5">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H241" s="4">
+      <c r="H241" s="5">
         <v>0.13100000000000001</v>
       </c>
       <c r="I241">
@@ -18300,10 +18318,10 @@
       <c r="F243">
         <v>2024</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="5">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H243" s="4">
+      <c r="H243" s="5">
         <v>0.20499999999999999</v>
       </c>
       <c r="I243">
@@ -18433,10 +18451,10 @@
       <c r="F245">
         <v>2024</v>
       </c>
-      <c r="G245" s="4">
+      <c r="G245" s="5">
         <v>0.38600000000000001</v>
       </c>
-      <c r="H245" s="4">
+      <c r="H245" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I245">
@@ -18569,10 +18587,10 @@
       <c r="F247">
         <v>2024</v>
       </c>
-      <c r="G247" s="4">
+      <c r="G247" s="5">
         <v>0.152</v>
       </c>
-      <c r="H247" s="4">
+      <c r="H247" s="5">
         <v>0.25600000000000001</v>
       </c>
       <c r="I247">
@@ -18705,10 +18723,10 @@
       <c r="F249">
         <v>2024</v>
       </c>
-      <c r="G249" s="4">
+      <c r="G249" s="5">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H249" s="4">
+      <c r="H249" s="5">
         <v>0.249</v>
       </c>
       <c r="I249">
@@ -18838,10 +18856,10 @@
       <c r="F251">
         <v>2024</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251" s="5">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H251" s="4">
+      <c r="H251" s="5">
         <v>0.35599999999999998</v>
       </c>
       <c r="I251">
@@ -18971,10 +18989,10 @@
       <c r="F253">
         <v>2024</v>
       </c>
-      <c r="G253" s="4">
+      <c r="G253" s="5">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H253" s="4">
+      <c r="H253" s="5">
         <v>0.27</v>
       </c>
       <c r="I253">
@@ -19107,10 +19125,10 @@
       <c r="F255">
         <v>2024</v>
       </c>
-      <c r="G255" s="4">
+      <c r="G255" s="5">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H255" s="4">
+      <c r="H255" s="5">
         <v>0.36199999999999999</v>
       </c>
       <c r="I255">
@@ -19243,10 +19261,10 @@
       <c r="F257">
         <v>2024</v>
       </c>
-      <c r="G257" s="4">
+      <c r="G257" s="5">
         <v>0.435</v>
       </c>
-      <c r="H257" s="4">
+      <c r="H257" s="5">
         <v>0.33100000000000002</v>
       </c>
       <c r="I257">
@@ -19373,10 +19391,10 @@
       <c r="F259">
         <v>2024</v>
       </c>
-      <c r="G259" s="4">
+      <c r="G259" s="5">
         <v>6.3E-2</v>
       </c>
-      <c r="H259" s="4">
+      <c r="H259" s="5">
         <v>0.11899999999999999</v>
       </c>
       <c r="I259">
@@ -19509,10 +19527,10 @@
       <c r="F261">
         <v>2024</v>
       </c>
-      <c r="G261" s="4">
+      <c r="G261" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="H261" s="4">
+      <c r="H261" s="5">
         <v>0.191</v>
       </c>
       <c r="I261">
@@ -19645,10 +19663,10 @@
       <c r="F263">
         <v>2024</v>
       </c>
-      <c r="G263" s="4">
+      <c r="G263" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="H263" s="4">
+      <c r="H263" s="5">
         <v>0.151</v>
       </c>
       <c r="I263">
@@ -19778,10 +19796,10 @@
       <c r="F265">
         <v>2024</v>
       </c>
-      <c r="G265" s="4">
+      <c r="G265" s="5">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H265" s="4">
+      <c r="H265" s="5">
         <v>0.34200000000000003</v>
       </c>
       <c r="I265">
@@ -19914,10 +19932,10 @@
       <c r="F267">
         <v>2024</v>
       </c>
-      <c r="G267" s="4">
+      <c r="G267" s="5">
         <v>0.29699999999999999</v>
       </c>
-      <c r="H267" s="4">
+      <c r="H267" s="5">
         <v>0.30399999999999999</v>
       </c>
       <c r="I267">
@@ -20050,10 +20068,10 @@
       <c r="F269">
         <v>2024</v>
       </c>
-      <c r="G269" s="4">
+      <c r="G269" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H269" s="4">
+      <c r="H269" s="5">
         <v>0.16800000000000001</v>
       </c>
       <c r="I269">
@@ -20186,10 +20204,10 @@
       <c r="F271">
         <v>2024</v>
       </c>
-      <c r="G271" s="4">
+      <c r="G271" s="5">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H271" s="4">
+      <c r="H271" s="5">
         <v>0.23499999999999999</v>
       </c>
       <c r="I271">
@@ -20322,10 +20340,10 @@
       <c r="F273">
         <v>2024</v>
       </c>
-      <c r="G273" s="4">
+      <c r="G273" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="H273" s="4">
+      <c r="H273" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I273">
@@ -20458,10 +20476,10 @@
       <c r="F275">
         <v>2024</v>
       </c>
-      <c r="G275" s="4">
+      <c r="G275" s="5">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H275" s="4">
+      <c r="H275" s="5">
         <v>0.26100000000000001</v>
       </c>
       <c r="I275">
@@ -20591,10 +20609,10 @@
       <c r="F277">
         <v>2024</v>
       </c>
-      <c r="G277" s="4">
+      <c r="G277" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="H277" s="4">
+      <c r="H277" s="5">
         <v>0.157</v>
       </c>
       <c r="I277">
@@ -20727,10 +20745,10 @@
       <c r="F279">
         <v>2024</v>
       </c>
-      <c r="G279" s="4">
+      <c r="G279" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H279" s="4">
+      <c r="H279" s="5">
         <v>0.33400000000000002</v>
       </c>
       <c r="I279">
@@ -20863,10 +20881,10 @@
       <c r="F281">
         <v>2024</v>
       </c>
-      <c r="G281" s="4">
+      <c r="G281" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H281" s="4">
+      <c r="H281" s="5">
         <v>0.13400000000000001</v>
       </c>
       <c r="I281">
@@ -20996,10 +21014,10 @@
       <c r="F283">
         <v>2024</v>
       </c>
-      <c r="G283" s="4">
+      <c r="G283" s="5">
         <v>0.121</v>
       </c>
-      <c r="H283" s="4">
+      <c r="H283" s="5">
         <v>0.09</v>
       </c>
       <c r="I283">
@@ -21132,10 +21150,10 @@
       <c r="F285">
         <v>2024</v>
       </c>
-      <c r="G285" s="4">
+      <c r="G285" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H285" s="4">
+      <c r="H285" s="5">
         <v>0.41699999999999998</v>
       </c>
       <c r="I285">
@@ -21265,10 +21283,10 @@
       <c r="F287">
         <v>2024</v>
       </c>
-      <c r="G287" s="4">
+      <c r="G287" s="5">
         <v>0.16</v>
       </c>
-      <c r="H287" s="4">
+      <c r="H287" s="5">
         <v>0.249</v>
       </c>
       <c r="I287">
@@ -21398,10 +21416,10 @@
       <c r="F289">
         <v>2024</v>
       </c>
-      <c r="G289" s="4">
+      <c r="G289" s="5">
         <v>0.188</v>
       </c>
-      <c r="H289" s="4">
+      <c r="H289" s="5">
         <v>0.251</v>
       </c>
       <c r="I289">
@@ -21531,10 +21549,10 @@
       <c r="F291">
         <v>2024</v>
       </c>
-      <c r="G291" s="4">
+      <c r="G291" s="5">
         <v>0.252</v>
       </c>
-      <c r="H291" s="4">
+      <c r="H291" s="5">
         <v>0.13300000000000001</v>
       </c>
       <c r="I291">
@@ -21661,10 +21679,10 @@
       <c r="F293">
         <v>2024</v>
       </c>
-      <c r="G293" s="4">
+      <c r="G293" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H293" s="4">
+      <c r="H293" s="5">
         <v>0.215</v>
       </c>
       <c r="I293">
@@ -21797,10 +21815,10 @@
       <c r="F295">
         <v>2024</v>
       </c>
-      <c r="G295" s="4">
+      <c r="G295" s="5">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H295" s="4">
+      <c r="H295" s="5">
         <v>0.35699999999999998</v>
       </c>
       <c r="I295">
@@ -21927,10 +21945,10 @@
       <c r="F297">
         <v>2024</v>
       </c>
-      <c r="G297" s="4">
+      <c r="G297" s="5">
         <v>0.185</v>
       </c>
-      <c r="H297" s="4">
+      <c r="H297" s="5">
         <v>0.38600000000000001</v>
       </c>
       <c r="I297">
@@ -22060,10 +22078,10 @@
       <c r="F299">
         <v>2024</v>
       </c>
-      <c r="G299" s="4">
+      <c r="G299" s="5">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H299" s="4">
+      <c r="H299" s="5">
         <v>3.9E-2</v>
       </c>
       <c r="I299">
@@ -22190,10 +22208,10 @@
       <c r="F301">
         <v>2024</v>
       </c>
-      <c r="G301" s="4">
+      <c r="G301" s="5">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H301" s="4">
+      <c r="H301" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I301">
@@ -22323,10 +22341,10 @@
       <c r="F303">
         <v>2024</v>
       </c>
-      <c r="G303" s="4">
+      <c r="G303" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H303" s="4">
+      <c r="H303" s="5">
         <v>0.42699999999999999</v>
       </c>
       <c r="I303">
@@ -22453,10 +22471,10 @@
       <c r="F305">
         <v>2024</v>
       </c>
-      <c r="G305" s="4">
+      <c r="G305" s="5">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H305" s="4">
+      <c r="H305" s="5">
         <v>0.36599999999999999</v>
       </c>
       <c r="I305">
@@ -22589,10 +22607,10 @@
       <c r="F307">
         <v>2024</v>
       </c>
-      <c r="G307" s="4">
+      <c r="G307" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H307" s="4">
+      <c r="H307" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I307">
@@ -22725,10 +22743,10 @@
       <c r="F309">
         <v>2024</v>
       </c>
-      <c r="G309" s="4">
+      <c r="G309" s="5">
         <v>0.377</v>
       </c>
-      <c r="H309" s="4">
+      <c r="H309" s="5">
         <v>0.32900000000000001</v>
       </c>
       <c r="I309">
@@ -22861,10 +22879,10 @@
       <c r="F311">
         <v>2024</v>
       </c>
-      <c r="G311" s="4">
+      <c r="G311" s="5">
         <v>6.3E-2</v>
       </c>
-      <c r="H311" s="4">
+      <c r="H311" s="5">
         <v>0.114</v>
       </c>
       <c r="I311">
@@ -22997,10 +23015,10 @@
       <c r="F313">
         <v>2024</v>
       </c>
-      <c r="G313" s="4">
+      <c r="G313" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="H313" s="4">
+      <c r="H313" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I313">
@@ -23130,10 +23148,10 @@
       <c r="F315">
         <v>2024</v>
       </c>
-      <c r="G315" s="4">
+      <c r="G315" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="H315" s="4">
+      <c r="H315" s="5">
         <v>2.7E-2</v>
       </c>
       <c r="I315">
@@ -23266,10 +23284,10 @@
       <c r="F317">
         <v>2024</v>
       </c>
-      <c r="G317" s="4">
+      <c r="G317" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H317" s="4">
+      <c r="H317" s="5">
         <v>0.44500000000000001</v>
       </c>
       <c r="I317">
@@ -23402,10 +23420,10 @@
       <c r="F319">
         <v>2024</v>
       </c>
-      <c r="G319" s="4">
+      <c r="G319" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H319" s="4">
+      <c r="H319" s="5">
         <v>0.33700000000000002</v>
       </c>
       <c r="I319">
@@ -23535,10 +23553,10 @@
       <c r="F321">
         <v>2024</v>
       </c>
-      <c r="G321" s="4">
+      <c r="G321" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H321" s="4">
+      <c r="H321" s="5">
         <v>0.42899999999999999</v>
       </c>
       <c r="I321">
@@ -23671,10 +23689,10 @@
       <c r="F323">
         <v>2024</v>
       </c>
-      <c r="G323" s="4">
+      <c r="G323" s="5">
         <v>0.378</v>
       </c>
-      <c r="H323" s="4">
+      <c r="H323" s="5">
         <v>0.32</v>
       </c>
       <c r="I323">
@@ -23804,10 +23822,10 @@
       <c r="F325">
         <v>2024</v>
       </c>
-      <c r="G325" s="4">
+      <c r="G325" s="5">
         <v>0.36499999999999999</v>
       </c>
-      <c r="H325" s="4">
+      <c r="H325" s="5">
         <v>0.04</v>
       </c>
       <c r="I325">
@@ -23937,10 +23955,10 @@
       <c r="F327">
         <v>2024</v>
       </c>
-      <c r="G327" s="4">
+      <c r="G327" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="H327" s="4">
+      <c r="H327" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I327">
@@ -24070,10 +24088,10 @@
       <c r="F329">
         <v>2024</v>
       </c>
-      <c r="G329" s="4">
+      <c r="G329" s="5">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H329" s="4">
+      <c r="H329" s="5">
         <v>0.25900000000000001</v>
       </c>
       <c r="I329">
@@ -24206,10 +24224,10 @@
       <c r="F331">
         <v>2024</v>
       </c>
-      <c r="G331" s="4">
+      <c r="G331" s="5">
         <v>0.108</v>
       </c>
-      <c r="H331" s="4">
+      <c r="H331" s="5">
         <v>0.38600000000000001</v>
       </c>
       <c r="I331">
@@ -24342,10 +24360,10 @@
       <c r="F333">
         <v>2024</v>
       </c>
-      <c r="G333" s="4">
+      <c r="G333" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H333" s="4">
+      <c r="H333" s="5">
         <v>0.114</v>
       </c>
       <c r="I333">
@@ -24478,10 +24496,10 @@
       <c r="F335">
         <v>2024</v>
       </c>
-      <c r="G335" s="4">
+      <c r="G335" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H335" s="4">
+      <c r="H335" s="5">
         <v>0.36499999999999999</v>
       </c>
       <c r="I335">
@@ -24611,10 +24629,10 @@
       <c r="F337">
         <v>2024</v>
       </c>
-      <c r="G337" s="4">
+      <c r="G337" s="5">
         <v>0.05</v>
       </c>
-      <c r="H337" s="4">
+      <c r="H337" s="5">
         <v>0.23</v>
       </c>
       <c r="I337">
@@ -24747,10 +24765,10 @@
       <c r="F339">
         <v>2024</v>
       </c>
-      <c r="G339" s="4">
+      <c r="G339" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H339" s="4">
+      <c r="H339" s="5">
         <v>0.23400000000000001</v>
       </c>
       <c r="I339">
@@ -24880,10 +24898,10 @@
       <c r="F341">
         <v>2024</v>
       </c>
-      <c r="G341" s="4">
+      <c r="G341" s="5">
         <v>0.126</v>
       </c>
-      <c r="H341" s="4">
+      <c r="H341" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I341">
@@ -25016,10 +25034,10 @@
       <c r="F343">
         <v>2024</v>
       </c>
-      <c r="G343" s="4">
+      <c r="G343" s="5">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H343" s="4">
+      <c r="H343" s="5">
         <v>0.30199999999999999</v>
       </c>
       <c r="I343">
@@ -25152,10 +25170,10 @@
       <c r="F345">
         <v>2024</v>
       </c>
-      <c r="G345" s="4">
+      <c r="G345" s="5">
         <v>0.33200000000000002</v>
       </c>
-      <c r="H345" s="4">
+      <c r="H345" s="5">
         <v>0.21099999999999999</v>
       </c>
       <c r="I345">
@@ -25288,10 +25306,10 @@
       <c r="F347">
         <v>2024</v>
       </c>
-      <c r="G347" s="4">
+      <c r="G347" s="5">
         <v>0.317</v>
       </c>
-      <c r="H347" s="4">
+      <c r="H347" s="5">
         <v>0.19900000000000001</v>
       </c>
       <c r="I347">
@@ -25424,10 +25442,10 @@
       <c r="F349">
         <v>2024</v>
       </c>
-      <c r="G349" s="4">
+      <c r="G349" s="5">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H349" s="4">
+      <c r="H349" s="5">
         <v>0.17</v>
       </c>
       <c r="I349">
@@ -25557,10 +25575,10 @@
       <c r="F351">
         <v>2024</v>
       </c>
-      <c r="G351" s="4">
+      <c r="G351" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H351" s="4">
+      <c r="H351" s="5">
         <v>0.40699999999999997</v>
       </c>
       <c r="I351">
@@ -25690,10 +25708,10 @@
       <c r="F353">
         <v>2024</v>
       </c>
-      <c r="G353" s="4">
+      <c r="G353" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H353" s="4">
+      <c r="H353" s="5">
         <v>0.105</v>
       </c>
       <c r="I353">
@@ -25826,10 +25844,10 @@
       <c r="F355">
         <v>2024</v>
       </c>
-      <c r="G355" s="4">
+      <c r="G355" s="5">
         <v>0.39700000000000002</v>
       </c>
-      <c r="H355" s="4">
+      <c r="H355" s="5">
         <v>0.185</v>
       </c>
       <c r="I355">
@@ -25962,10 +25980,10 @@
       <c r="F357">
         <v>2024</v>
       </c>
-      <c r="G357" s="4">
+      <c r="G357" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H357" s="4">
+      <c r="H357" s="5">
         <v>2E-3</v>
       </c>
       <c r="I357">
@@ -26095,10 +26113,10 @@
       <c r="F359">
         <v>2024</v>
       </c>
-      <c r="G359" s="4">
+      <c r="G359" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H359" s="4">
+      <c r="H359" s="5">
         <v>0.24299999999999999</v>
       </c>
       <c r="I359">
@@ -26231,10 +26249,10 @@
       <c r="F361">
         <v>2024</v>
       </c>
-      <c r="G361" s="4">
+      <c r="G361" s="5">
         <v>0.109</v>
       </c>
-      <c r="H361" s="4">
+      <c r="H361" s="5">
         <v>0.32400000000000001</v>
       </c>
       <c r="I361">
@@ -26367,10 +26385,10 @@
       <c r="F363">
         <v>2024</v>
       </c>
-      <c r="G363" s="4">
+      <c r="G363" s="5">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H363" s="4">
+      <c r="H363" s="5">
         <v>0.28399999999999997</v>
       </c>
       <c r="I363">
@@ -26497,10 +26515,10 @@
       <c r="F365">
         <v>2024</v>
       </c>
-      <c r="G365" s="4">
+      <c r="G365" s="5">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H365" s="4">
+      <c r="H365" s="5">
         <v>0.38</v>
       </c>
       <c r="I365">
@@ -26627,10 +26645,10 @@
       <c r="F367">
         <v>2024</v>
       </c>
-      <c r="G367" s="4">
+      <c r="G367" s="5">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H367" s="4">
+      <c r="H367" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I367">
@@ -26763,10 +26781,10 @@
       <c r="F369">
         <v>2024</v>
       </c>
-      <c r="G369" s="4">
+      <c r="G369" s="5">
         <v>0.45</v>
       </c>
-      <c r="H369" s="4">
+      <c r="H369" s="5">
         <v>0.44800000000000001</v>
       </c>
       <c r="I369">
@@ -26899,10 +26917,10 @@
       <c r="F371">
         <v>2024</v>
       </c>
-      <c r="G371" s="4">
+      <c r="G371" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H371" s="4">
+      <c r="H371" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="I371">
@@ -27035,10 +27053,10 @@
       <c r="F373">
         <v>2024</v>
       </c>
-      <c r="G373" s="4">
+      <c r="G373" s="5">
         <v>0.161</v>
       </c>
-      <c r="H373" s="4">
+      <c r="H373" s="5">
         <v>0.16</v>
       </c>
       <c r="I373">
@@ -27168,10 +27186,10 @@
       <c r="F375">
         <v>2024</v>
       </c>
-      <c r="G375" s="4">
+      <c r="G375" s="5">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H375" s="4">
+      <c r="H375" s="5">
         <v>0.41199999999999998</v>
       </c>
       <c r="I375">
@@ -27304,10 +27322,10 @@
       <c r="F377">
         <v>2024</v>
       </c>
-      <c r="G377" s="4">
+      <c r="G377" s="5">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H377" s="4">
+      <c r="H377" s="5">
         <v>0.183</v>
       </c>
       <c r="I377">
@@ -27440,10 +27458,10 @@
       <c r="F379">
         <v>2024</v>
       </c>
-      <c r="G379" s="4">
+      <c r="G379" s="5">
         <v>0.129</v>
       </c>
-      <c r="H379" s="4">
+      <c r="H379" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I379">
@@ -27576,10 +27594,10 @@
       <c r="F381">
         <v>2024</v>
       </c>
-      <c r="G381" s="4">
+      <c r="G381" s="5">
         <v>0.03</v>
       </c>
-      <c r="H381" s="4">
+      <c r="H381" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I381">
@@ -27712,10 +27730,10 @@
       <c r="F383">
         <v>2024</v>
       </c>
-      <c r="G383" s="4">
+      <c r="G383" s="5">
         <v>0.36</v>
       </c>
-      <c r="H383" s="4">
+      <c r="H383" s="5">
         <v>0.124</v>
       </c>
       <c r="I383">
@@ -27848,10 +27866,10 @@
       <c r="F385">
         <v>2024</v>
       </c>
-      <c r="G385" s="4">
+      <c r="G385" s="5">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H385" s="4">
+      <c r="H385" s="5">
         <v>0.04</v>
       </c>
       <c r="I385">
@@ -27981,10 +27999,10 @@
       <c r="F387">
         <v>2024</v>
       </c>
-      <c r="G387" s="4">
+      <c r="G387" s="5">
         <v>0.378</v>
       </c>
-      <c r="H387" s="4">
+      <c r="H387" s="5">
         <v>0.443</v>
       </c>
       <c r="I387">
@@ -28114,10 +28132,10 @@
       <c r="F389">
         <v>2024</v>
       </c>
-      <c r="G389" s="4">
+      <c r="G389" s="5">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H389" s="4">
+      <c r="H389" s="5">
         <v>0.03</v>
       </c>
       <c r="I389">
@@ -28250,10 +28268,10 @@
       <c r="F391">
         <v>2024</v>
       </c>
-      <c r="G391" s="4">
+      <c r="G391" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H391" s="4">
+      <c r="H391" s="5">
         <v>0.188</v>
       </c>
       <c r="I391">
@@ -28383,10 +28401,10 @@
       <c r="F393">
         <v>2024</v>
       </c>
-      <c r="G393" s="4">
+      <c r="G393" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H393" s="4">
+      <c r="H393" s="5">
         <v>0.30099999999999999</v>
       </c>
       <c r="I393">
@@ -28519,10 +28537,10 @@
       <c r="F395">
         <v>2024</v>
       </c>
-      <c r="G395" s="4">
+      <c r="G395" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H395" s="4">
+      <c r="H395" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I395">
@@ -28655,10 +28673,10 @@
       <c r="F397">
         <v>2024</v>
       </c>
-      <c r="G397" s="4">
+      <c r="G397" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H397" s="4">
+      <c r="H397" s="5">
         <v>0.105</v>
       </c>
       <c r="I397">
@@ -28788,10 +28806,10 @@
       <c r="F399">
         <v>2024</v>
       </c>
-      <c r="G399" s="4">
+      <c r="G399" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H399" s="4">
+      <c r="H399" s="5">
         <v>0.13300000000000001</v>
       </c>
       <c r="I399">
@@ -28924,10 +28942,10 @@
       <c r="F401">
         <v>2024</v>
       </c>
-      <c r="G401" s="4">
+      <c r="G401" s="5">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H401" s="4">
+      <c r="H401" s="5">
         <v>0.154</v>
       </c>
       <c r="I401">
@@ -29060,10 +29078,10 @@
       <c r="F403">
         <v>2024</v>
       </c>
-      <c r="G403" s="4">
+      <c r="G403" s="5">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H403" s="4">
+      <c r="H403" s="5">
         <v>0.23200000000000001</v>
       </c>
       <c r="I403">
@@ -29196,10 +29214,10 @@
       <c r="F405">
         <v>2024</v>
       </c>
-      <c r="G405" s="4">
+      <c r="G405" s="5">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H405" s="4">
+      <c r="H405" s="5">
         <v>0.126</v>
       </c>
       <c r="I405">
@@ -29332,10 +29350,10 @@
       <c r="F407">
         <v>2024</v>
       </c>
-      <c r="G407" s="4">
+      <c r="G407" s="5">
         <v>0.112</v>
       </c>
-      <c r="H407" s="4">
+      <c r="H407" s="5">
         <v>0.28799999999999998</v>
       </c>
       <c r="I407">
@@ -29465,10 +29483,10 @@
       <c r="F409">
         <v>2024</v>
       </c>
-      <c r="G409" s="4">
+      <c r="G409" s="5">
         <v>0.2</v>
       </c>
-      <c r="H409" s="4">
+      <c r="H409" s="5">
         <v>0.39</v>
       </c>
       <c r="I409">
@@ -29601,10 +29619,10 @@
       <c r="F411">
         <v>2024</v>
       </c>
-      <c r="G411" s="4">
+      <c r="G411" s="5">
         <v>0.127</v>
       </c>
-      <c r="H411" s="4">
+      <c r="H411" s="5">
         <v>0.32200000000000001</v>
       </c>
       <c r="I411">
@@ -29734,10 +29752,10 @@
       <c r="F413">
         <v>2024</v>
       </c>
-      <c r="G413" s="4">
+      <c r="G413" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H413" s="4">
+      <c r="H413" s="5">
         <v>0.27400000000000002</v>
       </c>
       <c r="I413">
@@ -29870,10 +29888,10 @@
       <c r="F415">
         <v>2024</v>
       </c>
-      <c r="G415" s="4">
+      <c r="G415" s="5">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H415" s="4">
+      <c r="H415" s="5">
         <v>0.111</v>
       </c>
       <c r="I415">
@@ -30006,10 +30024,10 @@
       <c r="F417">
         <v>2024</v>
       </c>
-      <c r="G417" s="4">
+      <c r="G417" s="5">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H417" s="4">
+      <c r="H417" s="5">
         <v>0.42299999999999999</v>
       </c>
       <c r="I417">
@@ -30139,10 +30157,10 @@
       <c r="F419">
         <v>2024</v>
       </c>
-      <c r="G419" s="4">
+      <c r="G419" s="5">
         <v>0.247</v>
       </c>
-      <c r="H419" s="4">
+      <c r="H419" s="5">
         <v>0.182</v>
       </c>
       <c r="I419">
@@ -30269,10 +30287,10 @@
       <c r="F421">
         <v>2024</v>
       </c>
-      <c r="G421" s="4">
+      <c r="G421" s="5">
         <v>0.373</v>
       </c>
-      <c r="H421" s="4">
+      <c r="H421" s="5">
         <v>0.377</v>
       </c>
       <c r="I421">
@@ -30399,10 +30417,10 @@
       <c r="F423">
         <v>2024</v>
       </c>
-      <c r="G423" s="4">
+      <c r="G423" s="5">
         <v>0.32300000000000001</v>
       </c>
-      <c r="H423" s="4">
+      <c r="H423" s="5">
         <v>0.25</v>
       </c>
       <c r="I423">
@@ -30535,10 +30553,10 @@
       <c r="F425">
         <v>2024</v>
       </c>
-      <c r="G425" s="4">
+      <c r="G425" s="5">
         <v>0.2</v>
       </c>
-      <c r="H425" s="4">
+      <c r="H425" s="5">
         <v>0.33500000000000002</v>
       </c>
       <c r="I425">
@@ -30668,10 +30686,10 @@
       <c r="F427">
         <v>2024</v>
       </c>
-      <c r="G427" s="4">
+      <c r="G427" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="H427" s="4">
+      <c r="H427" s="5">
         <v>0.107</v>
       </c>
       <c r="I427">
@@ -30798,10 +30816,10 @@
       <c r="F429">
         <v>2024</v>
       </c>
-      <c r="G429" s="4">
+      <c r="G429" s="5">
         <v>0.437</v>
       </c>
-      <c r="H429" s="4">
+      <c r="H429" s="5">
         <v>0.33700000000000002</v>
       </c>
       <c r="I429">
@@ -30934,10 +30952,10 @@
       <c r="F431">
         <v>2024</v>
       </c>
-      <c r="G431" s="4">
+      <c r="G431" s="5">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H431" s="4">
+      <c r="H431" s="5">
         <v>0.17599999999999999</v>
       </c>
       <c r="I431">
@@ -31070,10 +31088,10 @@
       <c r="F433">
         <v>2024</v>
       </c>
-      <c r="G433" s="4">
+      <c r="G433" s="5">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H433" s="4">
+      <c r="H433" s="5">
         <v>0.376</v>
       </c>
       <c r="I433">
@@ -31206,10 +31224,10 @@
       <c r="F435">
         <v>2024</v>
       </c>
-      <c r="G435" s="4">
+      <c r="G435" s="5">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H435" s="4">
+      <c r="H435" s="5">
         <v>0.13</v>
       </c>
       <c r="I435">
@@ -31339,10 +31357,10 @@
       <c r="F437">
         <v>2024</v>
       </c>
-      <c r="G437" s="4">
+      <c r="G437" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H437" s="4">
+      <c r="H437" s="5">
         <v>0.126</v>
       </c>
       <c r="I437">
@@ -31475,10 +31493,10 @@
       <c r="F439">
         <v>2024</v>
       </c>
-      <c r="G439" s="4">
+      <c r="G439" s="5">
         <v>0.314</v>
       </c>
-      <c r="H439" s="4">
+      <c r="H439" s="5">
         <v>0.35599999999999998</v>
       </c>
       <c r="I439">
@@ -31611,10 +31629,10 @@
       <c r="F441">
         <v>2024</v>
       </c>
-      <c r="G441" s="4">
+      <c r="G441" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H441" s="4">
+      <c r="H441" s="5">
         <v>0.24099999999999999</v>
       </c>
       <c r="I441">
@@ -31744,10 +31762,10 @@
       <c r="F443">
         <v>2024</v>
       </c>
-      <c r="G443" s="4">
+      <c r="G443" s="5">
         <v>0.186</v>
       </c>
-      <c r="H443" s="4">
+      <c r="H443" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I443">
@@ -31880,10 +31898,10 @@
       <c r="F445">
         <v>2024</v>
       </c>
-      <c r="G445" s="4">
+      <c r="G445" s="5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H445" s="4">
+      <c r="H445" s="5">
         <v>0.123</v>
       </c>
       <c r="I445">
@@ -32016,10 +32034,10 @@
       <c r="F447">
         <v>2024</v>
       </c>
-      <c r="G447" s="4">
+      <c r="G447" s="5">
         <v>0.42</v>
       </c>
-      <c r="H447" s="4">
+      <c r="H447" s="5">
         <v>0.14899999999999999</v>
       </c>
       <c r="I447">
@@ -32149,10 +32167,10 @@
       <c r="F449">
         <v>2024</v>
       </c>
-      <c r="G449" s="4">
+      <c r="G449" s="5">
         <v>0.122</v>
       </c>
-      <c r="H449" s="4">
+      <c r="H449" s="5">
         <v>0.27900000000000003</v>
       </c>
       <c r="I449">
@@ -32282,10 +32300,10 @@
       <c r="F451">
         <v>2024</v>
       </c>
-      <c r="G451" s="4">
+      <c r="G451" s="5">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H451" s="4">
+      <c r="H451" s="5">
         <v>0.154</v>
       </c>
       <c r="I451">
@@ -32418,10 +32436,10 @@
       <c r="F453">
         <v>2024</v>
       </c>
-      <c r="G453" s="4">
+      <c r="G453" s="5">
         <v>0.372</v>
       </c>
-      <c r="H453" s="4">
+      <c r="H453" s="5">
         <v>0.441</v>
       </c>
       <c r="I453">
@@ -32551,10 +32569,10 @@
       <c r="F455">
         <v>2024</v>
       </c>
-      <c r="G455" s="4">
+      <c r="G455" s="5">
         <v>0.37</v>
       </c>
-      <c r="H455" s="4">
+      <c r="H455" s="5">
         <v>0.153</v>
       </c>
       <c r="I455">
@@ -32687,10 +32705,10 @@
       <c r="F457">
         <v>2024</v>
       </c>
-      <c r="G457" s="4">
+      <c r="G457" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H457" s="4">
+      <c r="H457" s="5">
         <v>0.32500000000000001</v>
       </c>
       <c r="I457">
@@ -32820,10 +32838,10 @@
       <c r="F459">
         <v>2024</v>
       </c>
-      <c r="G459" s="4">
+      <c r="G459" s="5">
         <v>0.22</v>
       </c>
-      <c r="H459" s="4">
+      <c r="H459" s="5">
         <v>0.33500000000000002</v>
       </c>
       <c r="I459">
@@ -32953,10 +32971,10 @@
       <c r="F461">
         <v>2024</v>
       </c>
-      <c r="G461" s="4">
+      <c r="G461" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H461" s="4">
+      <c r="H461" s="5">
         <v>0.22600000000000001</v>
       </c>
       <c r="I461">
@@ -33089,10 +33107,10 @@
       <c r="F463">
         <v>2024</v>
       </c>
-      <c r="G463" s="4">
+      <c r="G463" s="5">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H463" s="4">
+      <c r="H463" s="5">
         <v>0.435</v>
       </c>
       <c r="I463">
@@ -33225,10 +33243,10 @@
       <c r="F465">
         <v>2024</v>
       </c>
-      <c r="G465" s="4">
+      <c r="G465" s="5">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H465" s="4">
+      <c r="H465" s="5">
         <v>0.29099999999999998</v>
       </c>
       <c r="I465">
@@ -33361,10 +33379,10 @@
       <c r="F467">
         <v>2024</v>
       </c>
-      <c r="G467" s="4">
+      <c r="G467" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H467" s="4">
+      <c r="H467" s="5">
         <v>0.44900000000000001</v>
       </c>
       <c r="I467">
@@ -33494,10 +33512,10 @@
       <c r="F469">
         <v>2024</v>
       </c>
-      <c r="G469" s="4">
+      <c r="G469" s="5">
         <v>0.193</v>
       </c>
-      <c r="H469" s="4">
+      <c r="H469" s="5">
         <v>0.126</v>
       </c>
       <c r="I469">
@@ -33627,10 +33645,10 @@
       <c r="F471">
         <v>2024</v>
       </c>
-      <c r="G471" s="4">
+      <c r="G471" s="5">
         <v>0.158</v>
       </c>
-      <c r="H471" s="4">
+      <c r="H471" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="I471">
@@ -33763,10 +33781,10 @@
       <c r="F473">
         <v>2024</v>
       </c>
-      <c r="G473" s="4">
+      <c r="G473" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H473" s="4">
+      <c r="H473" s="5">
         <v>0.41</v>
       </c>
       <c r="I473">
@@ -33896,10 +33914,10 @@
       <c r="F475">
         <v>2024</v>
       </c>
-      <c r="G475" s="4">
+      <c r="G475" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H475" s="4">
+      <c r="H475" s="5">
         <v>0.44900000000000001</v>
       </c>
       <c r="I475">
@@ -34029,10 +34047,10 @@
       <c r="F477">
         <v>2024</v>
       </c>
-      <c r="G477" s="4">
+      <c r="G477" s="5">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H477" s="4">
+      <c r="H477" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I477">
@@ -34165,10 +34183,10 @@
       <c r="F479">
         <v>2024</v>
       </c>
-      <c r="G479" s="4">
+      <c r="G479" s="5">
         <v>0.39600000000000002</v>
       </c>
-      <c r="H479" s="4">
+      <c r="H479" s="5">
         <v>0.442</v>
       </c>
       <c r="I479">
@@ -34301,10 +34319,10 @@
       <c r="F481">
         <v>2024</v>
       </c>
-      <c r="G481" s="4">
+      <c r="G481" s="5">
         <v>0.38100000000000001</v>
       </c>
-      <c r="H481" s="4">
+      <c r="H481" s="5">
         <v>0.41299999999999998</v>
       </c>
       <c r="I481">
@@ -34437,10 +34455,10 @@
       <c r="F483">
         <v>2024</v>
       </c>
-      <c r="G483" s="4">
+      <c r="G483" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H483" s="4">
+      <c r="H483" s="5">
         <v>0.26900000000000002</v>
       </c>
       <c r="I483">
@@ -34567,10 +34585,10 @@
       <c r="F485">
         <v>2024</v>
       </c>
-      <c r="G485" s="4">
+      <c r="G485" s="5">
         <v>0.1</v>
       </c>
-      <c r="H485" s="4">
+      <c r="H485" s="5">
         <v>0.27900000000000003</v>
       </c>
       <c r="I485">
@@ -34697,10 +34715,10 @@
       <c r="F487">
         <v>2024</v>
       </c>
-      <c r="G487" s="4">
+      <c r="G487" s="5">
         <v>0.107</v>
       </c>
-      <c r="H487" s="4">
+      <c r="H487" s="5">
         <v>0.29199999999999998</v>
       </c>
       <c r="I487">
@@ -34830,10 +34848,10 @@
       <c r="F489">
         <v>2024</v>
       </c>
-      <c r="G489" s="4">
+      <c r="G489" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H489" s="4">
+      <c r="H489" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="I489">
@@ -34966,10 +34984,10 @@
       <c r="F491">
         <v>2024</v>
       </c>
-      <c r="G491" s="4">
+      <c r="G491" s="5">
         <v>0.154</v>
       </c>
-      <c r="H491" s="4">
+      <c r="H491" s="5">
         <v>0.24399999999999999</v>
       </c>
       <c r="I491">
@@ -35102,10 +35120,10 @@
       <c r="F493">
         <v>2024</v>
       </c>
-      <c r="G493" s="4">
+      <c r="G493" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="H493" s="4">
+      <c r="H493" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I493">
@@ -35235,10 +35253,10 @@
       <c r="F495">
         <v>2024</v>
       </c>
-      <c r="G495" s="4">
+      <c r="G495" s="5">
         <v>0.316</v>
       </c>
-      <c r="H495" s="4">
+      <c r="H495" s="5">
         <v>0.35899999999999999</v>
       </c>
       <c r="I495">
@@ -35368,10 +35386,10 @@
       <c r="F497">
         <v>2024</v>
       </c>
-      <c r="G497" s="4">
+      <c r="G497" s="5">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H497" s="4">
+      <c r="H497" s="5">
         <v>0.247</v>
       </c>
       <c r="I497">
@@ -35504,10 +35522,10 @@
       <c r="F499">
         <v>2024</v>
       </c>
-      <c r="G499" s="4">
+      <c r="G499" s="5">
         <v>0.01</v>
       </c>
-      <c r="H499" s="4">
+      <c r="H499" s="5">
         <v>0.113</v>
       </c>
       <c r="I499">
@@ -35640,10 +35658,10 @@
       <c r="F501">
         <v>2024</v>
       </c>
-      <c r="G501" s="4">
+      <c r="G501" s="5">
         <v>0.379</v>
       </c>
-      <c r="H501" s="4">
+      <c r="H501" s="5">
         <v>0.31</v>
       </c>
       <c r="I501">
@@ -35770,10 +35788,10 @@
       <c r="F503">
         <v>2024</v>
       </c>
-      <c r="G503" s="4">
+      <c r="G503" s="5">
         <v>0.214</v>
       </c>
-      <c r="H503" s="4">
+      <c r="H503" s="5">
         <v>0.107</v>
       </c>
       <c r="I503">
@@ -35903,10 +35921,10 @@
       <c r="F505">
         <v>2024</v>
       </c>
-      <c r="G505" s="4">
+      <c r="G505" s="5">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H505" s="4">
+      <c r="H505" s="5">
         <v>0.123</v>
       </c>
       <c r="I505">
@@ -36036,10 +36054,10 @@
       <c r="F507">
         <v>2024</v>
       </c>
-      <c r="G507" s="4">
+      <c r="G507" s="5">
         <v>0.185</v>
       </c>
-      <c r="H507" s="4">
+      <c r="H507" s="5">
         <v>0.27700000000000002</v>
       </c>
       <c r="I507">
@@ -36172,10 +36190,10 @@
       <c r="F509">
         <v>2024</v>
       </c>
-      <c r="G509" s="4">
+      <c r="G509" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H509" s="4">
+      <c r="H509" s="5">
         <v>0.214</v>
       </c>
       <c r="I509">
@@ -36305,10 +36323,10 @@
       <c r="F511">
         <v>2024</v>
       </c>
-      <c r="G511" s="4">
+      <c r="G511" s="5">
         <v>0.374</v>
       </c>
-      <c r="H511" s="4">
+      <c r="H511" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I511">
@@ -36438,10 +36456,10 @@
       <c r="F513">
         <v>2024</v>
       </c>
-      <c r="G513" s="4">
+      <c r="G513" s="5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H513" s="4">
+      <c r="H513" s="5">
         <v>5.5E-2</v>
       </c>
       <c r="I513">
@@ -36571,10 +36589,10 @@
       <c r="F515">
         <v>2024</v>
       </c>
-      <c r="G515" s="4">
+      <c r="G515" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H515" s="4">
+      <c r="H515" s="5">
         <v>0.156</v>
       </c>
       <c r="I515">
@@ -36701,10 +36719,10 @@
       <c r="F517">
         <v>2024</v>
       </c>
-      <c r="G517" s="4">
+      <c r="G517" s="5">
         <v>0.115</v>
       </c>
-      <c r="H517" s="4">
+      <c r="H517" s="5">
         <v>0.41</v>
       </c>
       <c r="I517">
@@ -36834,10 +36852,10 @@
       <c r="F519">
         <v>2024</v>
       </c>
-      <c r="G519" s="4">
+      <c r="G519" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H519" s="4">
+      <c r="H519" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I519">
@@ -36970,10 +36988,10 @@
       <c r="F521">
         <v>2024</v>
       </c>
-      <c r="G521" s="4">
+      <c r="G521" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H521" s="4">
+      <c r="H521" s="5">
         <v>0.20100000000000001</v>
       </c>
       <c r="I521">
@@ -37106,10 +37124,10 @@
       <c r="F523">
         <v>2024</v>
       </c>
-      <c r="G523" s="4">
+      <c r="G523" s="5">
         <v>0.38700000000000001</v>
       </c>
-      <c r="H523" s="4">
+      <c r="H523" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I523">
@@ -37239,10 +37257,10 @@
       <c r="F525">
         <v>2024</v>
       </c>
-      <c r="G525" s="4">
+      <c r="G525" s="5">
         <v>0.33</v>
       </c>
-      <c r="H525" s="4">
+      <c r="H525" s="5">
         <v>0.315</v>
       </c>
       <c r="I525">
@@ -37372,10 +37390,10 @@
       <c r="F527">
         <v>2024</v>
       </c>
-      <c r="G527" s="4">
+      <c r="G527" s="5">
         <v>0.41799999999999998</v>
       </c>
-      <c r="H527" s="4">
+      <c r="H527" s="5">
         <v>0.26500000000000001</v>
       </c>
       <c r="I527">
@@ -37508,10 +37526,10 @@
       <c r="F529">
         <v>2024</v>
       </c>
-      <c r="G529" s="4">
+      <c r="G529" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H529" s="4">
+      <c r="H529" s="5">
         <v>0.34300000000000003</v>
       </c>
       <c r="I529">
@@ -37644,10 +37662,10 @@
       <c r="F531">
         <v>2024</v>
       </c>
-      <c r="G531" s="4">
+      <c r="G531" s="5">
         <v>0.373</v>
       </c>
-      <c r="H531" s="4">
+      <c r="H531" s="5">
         <v>0.19600000000000001</v>
       </c>
       <c r="I531">
@@ -37780,10 +37798,10 @@
       <c r="F533">
         <v>2024</v>
       </c>
-      <c r="G533" s="4">
+      <c r="G533" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H533" s="4">
+      <c r="H533" s="5">
         <v>0.188</v>
       </c>
       <c r="I533">
@@ -37913,10 +37931,10 @@
       <c r="F535">
         <v>2024</v>
       </c>
-      <c r="G535" s="4">
+      <c r="G535" s="5">
         <v>0.307</v>
       </c>
-      <c r="H535" s="4">
+      <c r="H535" s="5">
         <v>0.23699999999999999</v>
       </c>
       <c r="I535">
@@ -38049,10 +38067,10 @@
       <c r="F537">
         <v>2024</v>
       </c>
-      <c r="G537" s="4">
+      <c r="G537" s="5">
         <v>0.371</v>
       </c>
-      <c r="H537" s="4">
+      <c r="H537" s="5">
         <v>0.246</v>
       </c>
       <c r="I537">
@@ -38182,10 +38200,10 @@
       <c r="F539">
         <v>2024</v>
       </c>
-      <c r="G539" s="4">
+      <c r="G539" s="5">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H539" s="4">
+      <c r="H539" s="5">
         <v>0.42799999999999999</v>
       </c>
       <c r="I539">
@@ -38318,10 +38336,10 @@
       <c r="F541">
         <v>2024</v>
       </c>
-      <c r="G541" s="4">
+      <c r="G541" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H541" s="4">
+      <c r="H541" s="5">
         <v>0.29699999999999999</v>
       </c>
       <c r="I541">
@@ -38454,10 +38472,10 @@
       <c r="F543">
         <v>2024</v>
       </c>
-      <c r="G543" s="4">
+      <c r="G543" s="5">
         <v>0.34100000000000003</v>
       </c>
-      <c r="H543" s="4">
+      <c r="H543" s="5">
         <v>0.17199999999999999</v>
       </c>
       <c r="I543">
@@ -38587,10 +38605,10 @@
       <c r="F545">
         <v>2024</v>
       </c>
-      <c r="G545" s="4">
+      <c r="G545" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H545" s="4">
+      <c r="H545" s="5">
         <v>0.15</v>
       </c>
       <c r="I545">
@@ -38717,10 +38735,10 @@
       <c r="F547">
         <v>2024</v>
       </c>
-      <c r="G547" s="4">
+      <c r="G547" s="5">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H547" s="4">
+      <c r="H547" s="5">
         <v>0.31900000000000001</v>
       </c>
       <c r="I547">
@@ -38853,10 +38871,10 @@
       <c r="F549">
         <v>2024</v>
       </c>
-      <c r="G549" s="4">
+      <c r="G549" s="5">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H549" s="4">
+      <c r="H549" s="5">
         <v>0.35899999999999999</v>
       </c>
       <c r="I549">
@@ -38989,10 +39007,10 @@
       <c r="F551">
         <v>2024</v>
       </c>
-      <c r="G551" s="4">
+      <c r="G551" s="5">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H551" s="4">
+      <c r="H551" s="5">
         <v>0.23599999999999999</v>
       </c>
       <c r="I551">
@@ -39125,10 +39143,10 @@
       <c r="F553">
         <v>2024</v>
       </c>
-      <c r="G553" s="4">
+      <c r="G553" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H553" s="4">
+      <c r="H553" s="5">
         <v>0.41899999999999998</v>
       </c>
       <c r="I553">
@@ -39261,10 +39279,10 @@
       <c r="F555">
         <v>2024</v>
       </c>
-      <c r="G555" s="4">
+      <c r="G555" s="5">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H555" s="4">
+      <c r="H555" s="5">
         <v>0.38700000000000001</v>
       </c>
       <c r="I555">
@@ -39397,10 +39415,10 @@
       <c r="F557">
         <v>2024</v>
       </c>
-      <c r="G557" s="4">
+      <c r="G557" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H557" s="4">
+      <c r="H557" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="I557">
@@ -39533,10 +39551,10 @@
       <c r="F559">
         <v>2024</v>
       </c>
-      <c r="G559" s="4">
+      <c r="G559" s="5">
         <v>0.219</v>
       </c>
-      <c r="H559" s="4">
+      <c r="H559" s="5">
         <v>0.35899999999999999</v>
       </c>
       <c r="I559">
@@ -39669,10 +39687,10 @@
       <c r="F561">
         <v>2024</v>
       </c>
-      <c r="G561" s="4">
+      <c r="G561" s="5">
         <v>0.15</v>
       </c>
-      <c r="H561" s="4">
+      <c r="H561" s="5">
         <v>0.36499999999999999</v>
       </c>
       <c r="I561">
@@ -39805,10 +39823,10 @@
       <c r="F563">
         <v>2024</v>
       </c>
-      <c r="G563" s="4">
+      <c r="G563" s="5">
         <v>0.314</v>
       </c>
-      <c r="H563" s="4">
+      <c r="H563" s="5">
         <v>0.20899999999999999</v>
       </c>
       <c r="I563">
@@ -39938,10 +39956,10 @@
       <c r="F565">
         <v>2024</v>
       </c>
-      <c r="G565" s="4">
+      <c r="G565" s="5">
         <v>0.21</v>
       </c>
-      <c r="H565" s="4">
+      <c r="H565" s="5">
         <v>0.28799999999999998</v>
       </c>
       <c r="I565">
@@ -40074,10 +40092,10 @@
       <c r="F567">
         <v>2024</v>
       </c>
-      <c r="G567" s="4">
+      <c r="G567" s="5">
         <v>0.01</v>
       </c>
-      <c r="H567" s="4">
+      <c r="H567" s="5">
         <v>0.11799999999999999</v>
       </c>
       <c r="I567">
@@ -40207,10 +40225,10 @@
       <c r="F569">
         <v>2024</v>
       </c>
-      <c r="G569" s="4">
+      <c r="G569" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H569" s="4">
+      <c r="H569" s="5">
         <v>0.27700000000000002</v>
       </c>
       <c r="I569">
@@ -40340,10 +40358,10 @@
       <c r="F571">
         <v>2024</v>
       </c>
-      <c r="G571" s="4">
+      <c r="G571" s="5">
         <v>0.434</v>
       </c>
-      <c r="H571" s="4">
+      <c r="H571" s="5">
         <v>0.433</v>
       </c>
       <c r="I571">
@@ -40476,10 +40494,10 @@
       <c r="F573">
         <v>2024</v>
       </c>
-      <c r="G573" s="4">
+      <c r="G573" s="5">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H573" s="4">
+      <c r="H573" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I573">
@@ -40609,10 +40627,10 @@
       <c r="F575">
         <v>2024</v>
       </c>
-      <c r="G575" s="4">
+      <c r="G575" s="5">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H575" s="4">
+      <c r="H575" s="5">
         <v>0.44</v>
       </c>
       <c r="I575">
@@ -40742,10 +40760,10 @@
       <c r="F577">
         <v>2024</v>
       </c>
-      <c r="G577" s="4">
+      <c r="G577" s="5">
         <v>0.158</v>
       </c>
-      <c r="H577" s="4">
+      <c r="H577" s="5">
         <v>0.43099999999999999</v>
       </c>
       <c r="I577">
@@ -40878,10 +40896,10 @@
       <c r="F579">
         <v>2024</v>
       </c>
-      <c r="G579" s="4">
+      <c r="G579" s="5">
         <v>9.4E-2</v>
       </c>
-      <c r="H579" s="4">
+      <c r="H579" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="I579">
@@ -41014,10 +41032,10 @@
       <c r="F581">
         <v>2024</v>
       </c>
-      <c r="G581" s="4">
+      <c r="G581" s="5">
         <v>0.128</v>
       </c>
-      <c r="H581" s="4">
+      <c r="H581" s="5">
         <v>0.247</v>
       </c>
       <c r="I581">
@@ -41144,10 +41162,10 @@
       <c r="F583">
         <v>2024</v>
       </c>
-      <c r="G583" s="4">
+      <c r="G583" s="5">
         <v>0.376</v>
       </c>
-      <c r="H583" s="4">
+      <c r="H583" s="5">
         <v>2.4E-2</v>
       </c>
       <c r="I583">
@@ -41277,10 +41295,10 @@
       <c r="F585">
         <v>2024</v>
       </c>
-      <c r="G585" s="4">
+      <c r="G585" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H585" s="4">
+      <c r="H585" s="5">
         <v>0.38700000000000001</v>
       </c>
       <c r="I585">
@@ -41413,10 +41431,10 @@
       <c r="F587">
         <v>2024</v>
       </c>
-      <c r="G587" s="4">
+      <c r="G587" s="5">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H587" s="4">
+      <c r="H587" s="5">
         <v>0.40899999999999997</v>
       </c>
       <c r="I587">
@@ -41543,10 +41561,10 @@
       <c r="F589">
         <v>2024</v>
       </c>
-      <c r="G589" s="4">
+      <c r="G589" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H589" s="4">
+      <c r="H589" s="5">
         <v>0.26</v>
       </c>
       <c r="I589">
@@ -41676,10 +41694,10 @@
       <c r="F591">
         <v>2024</v>
       </c>
-      <c r="G591" s="4">
+      <c r="G591" s="5">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H591" s="4">
+      <c r="H591" s="5">
         <v>0.434</v>
       </c>
       <c r="I591">
@@ -41806,10 +41824,10 @@
       <c r="F593">
         <v>2024</v>
       </c>
-      <c r="G593" s="4">
+      <c r="G593" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="H593" s="4">
+      <c r="H593" s="5">
         <v>0.21199999999999999</v>
       </c>
       <c r="I593">
@@ -41942,10 +41960,10 @@
       <c r="F595">
         <v>2024</v>
       </c>
-      <c r="G595" s="4">
+      <c r="G595" s="5">
         <v>0.44</v>
       </c>
-      <c r="H595" s="4">
+      <c r="H595" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I595">
@@ -42075,10 +42093,10 @@
       <c r="F597">
         <v>2024</v>
       </c>
-      <c r="G597" s="4">
+      <c r="G597" s="5">
         <v>0.22</v>
       </c>
-      <c r="H597" s="4">
+      <c r="H597" s="5">
         <v>0.35</v>
       </c>
       <c r="I597">
@@ -42208,10 +42226,10 @@
       <c r="F599">
         <v>2024</v>
       </c>
-      <c r="G599" s="4">
+      <c r="G599" s="5">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H599" s="4">
+      <c r="H599" s="5">
         <v>0.314</v>
       </c>
       <c r="I599">
@@ -42344,10 +42362,10 @@
       <c r="F601">
         <v>2024</v>
       </c>
-      <c r="G601" s="4">
+      <c r="G601" s="5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H601" s="4">
+      <c r="H601" s="5">
         <v>0.26200000000000001</v>
       </c>
       <c r="I601">
@@ -42480,10 +42498,10 @@
       <c r="F603">
         <v>2024</v>
       </c>
-      <c r="G603" s="4">
+      <c r="G603" s="5">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H603" s="4">
+      <c r="H603" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="I603">
@@ -42616,10 +42634,10 @@
       <c r="F605">
         <v>2024</v>
       </c>
-      <c r="G605" s="4">
+      <c r="G605" s="5">
         <v>0.42199999999999999</v>
       </c>
-      <c r="H605" s="4">
+      <c r="H605" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I605">
@@ -42752,10 +42770,10 @@
       <c r="F607">
         <v>2024</v>
       </c>
-      <c r="G607" s="4">
+      <c r="G607" s="5">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H607" s="4">
+      <c r="H607" s="5">
         <v>0.251</v>
       </c>
       <c r="I607">
@@ -42888,10 +42906,10 @@
       <c r="F609">
         <v>2024</v>
       </c>
-      <c r="G609" s="4">
+      <c r="G609" s="5">
         <v>0.254</v>
       </c>
-      <c r="H609" s="4">
+      <c r="H609" s="5">
         <v>0.38100000000000001</v>
       </c>
       <c r="I609">
@@ -43024,10 +43042,10 @@
       <c r="F611">
         <v>2024</v>
       </c>
-      <c r="G611" s="4">
+      <c r="G611" s="5">
         <v>0.35099999999999998</v>
       </c>
-      <c r="H611" s="4">
+      <c r="H611" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I611">
@@ -43157,10 +43175,10 @@
       <c r="F613">
         <v>2024</v>
       </c>
-      <c r="G613" s="4">
+      <c r="G613" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H613" s="4">
+      <c r="H613" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I613">
@@ -43293,10 +43311,10 @@
       <c r="F615">
         <v>2024</v>
       </c>
-      <c r="G615" s="4">
+      <c r="G615" s="5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H615" s="4">
+      <c r="H615" s="5">
         <v>0.221</v>
       </c>
       <c r="I615">
@@ -43429,10 +43447,10 @@
       <c r="F617">
         <v>2024</v>
       </c>
-      <c r="G617" s="4">
+      <c r="G617" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H617" s="4">
+      <c r="H617" s="5">
         <v>0.44800000000000001</v>
       </c>
       <c r="I617">
@@ -43559,10 +43577,10 @@
       <c r="F619">
         <v>2024</v>
       </c>
-      <c r="G619" s="4">
+      <c r="G619" s="5">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H619" s="4">
+      <c r="H619" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="I619">
@@ -43695,10 +43713,10 @@
       <c r="F621">
         <v>2024</v>
       </c>
-      <c r="G621" s="4">
+      <c r="G621" s="5">
         <v>0.185</v>
       </c>
-      <c r="H621" s="4">
+      <c r="H621" s="5">
         <v>0.28699999999999998</v>
       </c>
       <c r="I621">
@@ -43831,10 +43849,10 @@
       <c r="F623">
         <v>2024</v>
       </c>
-      <c r="G623" s="4">
+      <c r="G623" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="H623" s="4">
+      <c r="H623" s="5">
         <v>0.107</v>
       </c>
       <c r="I623">
@@ -43967,10 +43985,10 @@
       <c r="F625">
         <v>2024</v>
       </c>
-      <c r="G625" s="4">
+      <c r="G625" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H625" s="4">
+      <c r="H625" s="5">
         <v>0.16400000000000001</v>
       </c>
       <c r="I625">
@@ -44103,10 +44121,10 @@
       <c r="F627">
         <v>2024</v>
       </c>
-      <c r="G627" s="4">
+      <c r="G627" s="5">
         <v>0.308</v>
       </c>
-      <c r="H627" s="4">
+      <c r="H627" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I627">
@@ -44239,10 +44257,10 @@
       <c r="F629">
         <v>2024</v>
       </c>
-      <c r="G629" s="4">
+      <c r="G629" s="5">
         <v>0.308</v>
       </c>
-      <c r="H629" s="4">
+      <c r="H629" s="5">
         <v>0.29599999999999999</v>
       </c>
       <c r="I629">
@@ -44372,10 +44390,10 @@
       <c r="F631">
         <v>2024</v>
       </c>
-      <c r="G631" s="4">
+      <c r="G631" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H631" s="4">
+      <c r="H631" s="5">
         <v>0.35799999999999998</v>
       </c>
       <c r="I631">
@@ -44508,10 +44526,10 @@
       <c r="F633">
         <v>2024</v>
       </c>
-      <c r="G633" s="4">
+      <c r="G633" s="5">
         <v>0.436</v>
       </c>
-      <c r="H633" s="4">
+      <c r="H633" s="5">
         <v>0.317</v>
       </c>
       <c r="I633">
@@ -44644,10 +44662,10 @@
       <c r="F635">
         <v>2024</v>
       </c>
-      <c r="G635" s="4">
+      <c r="G635" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H635" s="4">
+      <c r="H635" s="5">
         <v>0.38600000000000001</v>
       </c>
       <c r="I635">
@@ -44777,10 +44795,10 @@
       <c r="F637">
         <v>2024</v>
       </c>
-      <c r="G637" s="4">
+      <c r="G637" s="5">
         <v>0.03</v>
       </c>
-      <c r="H637" s="4">
+      <c r="H637" s="5">
         <v>0.443</v>
       </c>
       <c r="I637">
@@ -44913,10 +44931,10 @@
       <c r="F639">
         <v>2024</v>
       </c>
-      <c r="G639" s="4">
+      <c r="G639" s="5">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H639" s="4">
+      <c r="H639" s="5">
         <v>0.437</v>
       </c>
       <c r="I639">
@@ -45049,10 +45067,10 @@
       <c r="F641">
         <v>2024</v>
       </c>
-      <c r="G641" s="4">
+      <c r="G641" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H641" s="4">
+      <c r="H641" s="5">
         <v>0.22500000000000001</v>
       </c>
       <c r="I641">
@@ -45185,10 +45203,10 @@
       <c r="F643">
         <v>2024</v>
       </c>
-      <c r="G643" s="4">
+      <c r="G643" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H643" s="4">
+      <c r="H643" s="5">
         <v>0.13600000000000001</v>
       </c>
       <c r="I643">
@@ -45318,10 +45336,10 @@
       <c r="F645">
         <v>2024</v>
       </c>
-      <c r="G645" s="4">
+      <c r="G645" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H645" s="4">
+      <c r="H645" s="5">
         <v>0.44800000000000001</v>
       </c>
       <c r="I645">
@@ -45454,10 +45472,10 @@
       <c r="F647">
         <v>2024</v>
       </c>
-      <c r="G647" s="4">
+      <c r="G647" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H647" s="4">
+      <c r="H647" s="5">
         <v>0.22</v>
       </c>
       <c r="I647">
@@ -45590,10 +45608,10 @@
       <c r="F649">
         <v>2024</v>
       </c>
-      <c r="G649" s="4">
+      <c r="G649" s="5">
         <v>0.21</v>
       </c>
-      <c r="H649" s="4">
+      <c r="H649" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="I649">
@@ -45726,10 +45744,10 @@
       <c r="F651">
         <v>2024</v>
       </c>
-      <c r="G651" s="4">
+      <c r="G651" s="5">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H651" s="4">
+      <c r="H651" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I651">
@@ -45862,10 +45880,10 @@
       <c r="F653">
         <v>2024</v>
       </c>
-      <c r="G653" s="4">
+      <c r="G653" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H653" s="4">
+      <c r="H653" s="5">
         <v>0.41899999999999998</v>
       </c>
       <c r="I653">
@@ -45995,10 +46013,10 @@
       <c r="F655">
         <v>2024</v>
       </c>
-      <c r="G655" s="4">
+      <c r="G655" s="5">
         <v>0.312</v>
       </c>
-      <c r="H655" s="4">
+      <c r="H655" s="5">
         <v>0.36199999999999999</v>
       </c>
       <c r="I655">
@@ -46128,10 +46146,10 @@
       <c r="F657">
         <v>2024</v>
       </c>
-      <c r="G657" s="4">
+      <c r="G657" s="5">
         <v>0.222</v>
       </c>
-      <c r="H657" s="4">
+      <c r="H657" s="5">
         <v>0.21</v>
       </c>
       <c r="I657">
@@ -46261,10 +46279,10 @@
       <c r="F659">
         <v>2024</v>
       </c>
-      <c r="G659" s="4">
+      <c r="G659" s="5">
         <v>0.32200000000000001</v>
       </c>
-      <c r="H659" s="4">
+      <c r="H659" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="I659">
@@ -46391,10 +46409,10 @@
       <c r="F661">
         <v>2024</v>
       </c>
-      <c r="G661" s="4">
+      <c r="G661" s="5">
         <v>0.222</v>
       </c>
-      <c r="H661" s="4">
+      <c r="H661" s="5">
         <v>0.438</v>
       </c>
       <c r="I661">
@@ -46521,10 +46539,10 @@
       <c r="F663">
         <v>2024</v>
       </c>
-      <c r="G663" s="4">
+      <c r="G663" s="5">
         <v>0.153</v>
       </c>
-      <c r="H663" s="4">
+      <c r="H663" s="5">
         <v>0.23699999999999999</v>
       </c>
       <c r="I663">
@@ -46654,10 +46672,10 @@
       <c r="F665">
         <v>2024</v>
       </c>
-      <c r="G665" s="4">
+      <c r="G665" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H665" s="4">
+      <c r="H665" s="5">
         <v>0.18099999999999999</v>
       </c>
       <c r="I665">
@@ -46790,10 +46808,10 @@
       <c r="F667">
         <v>2024</v>
       </c>
-      <c r="G667" s="4">
+      <c r="G667" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H667" s="4">
+      <c r="H667" s="5">
         <v>0.40799999999999997</v>
       </c>
       <c r="I667">
@@ -46923,10 +46941,10 @@
       <c r="F669">
         <v>2024</v>
       </c>
-      <c r="G669" s="4">
+      <c r="G669" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="H669" s="4">
+      <c r="H669" s="5">
         <v>0.35899999999999999</v>
       </c>
       <c r="I669">
@@ -47056,10 +47074,10 @@
       <c r="F671">
         <v>2024</v>
       </c>
-      <c r="G671" s="4">
+      <c r="G671" s="5">
         <v>0.108</v>
       </c>
-      <c r="H671" s="4">
+      <c r="H671" s="5">
         <v>0.40500000000000003</v>
       </c>
       <c r="I671">
@@ -47189,10 +47207,10 @@
       <c r="F673">
         <v>2024</v>
       </c>
-      <c r="G673" s="4">
+      <c r="G673" s="5">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H673" s="4">
+      <c r="H673" s="5">
         <v>0.28599999999999998</v>
       </c>
       <c r="I673">
@@ -47325,10 +47343,10 @@
       <c r="F675">
         <v>2024</v>
       </c>
-      <c r="G675" s="4">
+      <c r="G675" s="5">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H675" s="4">
+      <c r="H675" s="5">
         <v>0.35099999999999998</v>
       </c>
       <c r="I675">
@@ -47458,10 +47476,10 @@
       <c r="F677">
         <v>2024</v>
       </c>
-      <c r="G677" s="4">
+      <c r="G677" s="5">
         <v>0.371</v>
       </c>
-      <c r="H677" s="4">
+      <c r="H677" s="5">
         <v>0.33</v>
       </c>
       <c r="I677">
@@ -47594,10 +47612,10 @@
       <c r="F679">
         <v>2024</v>
       </c>
-      <c r="G679" s="4">
+      <c r="G679" s="5">
         <v>0.154</v>
       </c>
-      <c r="H679" s="4">
+      <c r="H679" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I679">
@@ -47730,10 +47748,10 @@
       <c r="F681">
         <v>2024</v>
       </c>
-      <c r="G681" s="4">
+      <c r="G681" s="5">
         <v>0.33400000000000002</v>
       </c>
-      <c r="H681" s="4">
+      <c r="H681" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="I681">
@@ -47863,10 +47881,10 @@
       <c r="F683">
         <v>2024</v>
       </c>
-      <c r="G683" s="4">
+      <c r="G683" s="5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="H683" s="4">
+      <c r="H683" s="5">
         <v>0.32700000000000001</v>
       </c>
       <c r="I683">
@@ -47996,10 +48014,10 @@
       <c r="F685">
         <v>2024</v>
       </c>
-      <c r="G685" s="4">
+      <c r="G685" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H685" s="4">
+      <c r="H685" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I685">
@@ -48129,10 +48147,10 @@
       <c r="F687">
         <v>2024</v>
       </c>
-      <c r="G687" s="4">
+      <c r="G687" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H687" s="4">
+      <c r="H687" s="5">
         <v>0.41299999999999998</v>
       </c>
       <c r="I687">
@@ -48265,10 +48283,10 @@
       <c r="F689">
         <v>2024</v>
       </c>
-      <c r="G689" s="4">
+      <c r="G689" s="5">
         <v>0.33400000000000002</v>
       </c>
-      <c r="H689" s="4">
+      <c r="H689" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="I689">
@@ -48401,10 +48419,10 @@
       <c r="F691">
         <v>2024</v>
       </c>
-      <c r="G691" s="4">
+      <c r="G691" s="5">
         <v>0.39600000000000002</v>
       </c>
-      <c r="H691" s="4">
+      <c r="H691" s="5">
         <v>0.253</v>
       </c>
       <c r="I691">
@@ -48537,10 +48555,10 @@
       <c r="F693">
         <v>2024</v>
       </c>
-      <c r="G693" s="4">
+      <c r="G693" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="H693" s="4">
+      <c r="H693" s="5">
         <v>0.33800000000000002</v>
       </c>
       <c r="I693">
@@ -48673,10 +48691,10 @@
       <c r="F695">
         <v>2024</v>
       </c>
-      <c r="G695" s="4">
+      <c r="G695" s="5">
         <v>0.16</v>
       </c>
-      <c r="H695" s="4">
+      <c r="H695" s="5">
         <v>0.434</v>
       </c>
       <c r="I695">
@@ -48806,10 +48824,10 @@
       <c r="F697">
         <v>2024</v>
       </c>
-      <c r="G697" s="4">
+      <c r="G697" s="5">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H697" s="4">
+      <c r="H697" s="5">
         <v>0.433</v>
       </c>
       <c r="I697">
@@ -48942,10 +48960,10 @@
       <c r="F699">
         <v>2024</v>
       </c>
-      <c r="G699" s="4">
+      <c r="G699" s="5">
         <v>0.29699999999999999</v>
       </c>
-      <c r="H699" s="4">
+      <c r="H699" s="5">
         <v>0.39</v>
       </c>
       <c r="I699">
@@ -49078,10 +49096,10 @@
       <c r="F701">
         <v>2024</v>
       </c>
-      <c r="G701" s="4">
+      <c r="G701" s="5">
         <v>0.187</v>
       </c>
-      <c r="H701" s="4">
+      <c r="H701" s="5">
         <v>0.20300000000000001</v>
       </c>
       <c r="I701">
@@ -49214,10 +49232,10 @@
       <c r="F703">
         <v>2024</v>
       </c>
-      <c r="G703" s="4">
+      <c r="G703" s="5">
         <v>0.441</v>
       </c>
-      <c r="H703" s="4">
+      <c r="H703" s="5">
         <v>0.24399999999999999</v>
       </c>
       <c r="I703">
@@ -49347,10 +49365,10 @@
       <c r="F705">
         <v>2024</v>
       </c>
-      <c r="G705" s="4">
+      <c r="G705" s="5">
         <v>0.24399999999999999</v>
       </c>
-      <c r="H705" s="4">
+      <c r="H705" s="5">
         <v>0.122</v>
       </c>
       <c r="I705">
@@ -49480,10 +49498,10 @@
       <c r="F707">
         <v>2024</v>
       </c>
-      <c r="G707" s="4">
+      <c r="G707" s="5">
         <v>1E-3</v>
       </c>
-      <c r="H707" s="4">
+      <c r="H707" s="5">
         <v>0.26600000000000001</v>
       </c>
       <c r="I707">
@@ -49616,10 +49634,10 @@
       <c r="F709">
         <v>2024</v>
       </c>
-      <c r="G709" s="4">
+      <c r="G709" s="5">
         <v>0.121</v>
       </c>
-      <c r="H709" s="4">
+      <c r="H709" s="5">
         <v>0.192</v>
       </c>
       <c r="I709">
@@ -49752,10 +49770,10 @@
       <c r="F711">
         <v>2024</v>
       </c>
-      <c r="G711" s="4">
+      <c r="G711" s="5">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H711" s="4">
+      <c r="H711" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I711">
@@ -49888,10 +49906,10 @@
       <c r="F713">
         <v>2024</v>
       </c>
-      <c r="G713" s="4">
+      <c r="G713" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H713" s="4">
+      <c r="H713" s="5">
         <v>0.28399999999999997</v>
       </c>
       <c r="I713">
@@ -50024,10 +50042,10 @@
       <c r="F715">
         <v>2024</v>
       </c>
-      <c r="G715" s="4">
+      <c r="G715" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H715" s="4">
+      <c r="H715" s="5">
         <v>0.19</v>
       </c>
       <c r="I715">
@@ -50157,10 +50175,10 @@
       <c r="F717">
         <v>2024</v>
       </c>
-      <c r="G717" s="4">
+      <c r="G717" s="5">
         <v>0.309</v>
       </c>
-      <c r="H717" s="4">
+      <c r="H717" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I717">
@@ -50293,10 +50311,10 @@
       <c r="F719">
         <v>2024</v>
       </c>
-      <c r="G719" s="4">
+      <c r="G719" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H719" s="4">
+      <c r="H719" s="5">
         <v>0.29599999999999999</v>
       </c>
       <c r="I719">
@@ -50429,10 +50447,10 @@
       <c r="F721">
         <v>2024</v>
       </c>
-      <c r="G721" s="4">
+      <c r="G721" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H721" s="4">
+      <c r="H721" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I721">
@@ -50565,10 +50583,10 @@
       <c r="F723">
         <v>2024</v>
       </c>
-      <c r="G723" s="4">
+      <c r="G723" s="5">
         <v>0.252</v>
       </c>
-      <c r="H723" s="4">
+      <c r="H723" s="5">
         <v>0.24299999999999999</v>
       </c>
       <c r="I723">
@@ -50701,10 +50719,10 @@
       <c r="F725">
         <v>2024</v>
       </c>
-      <c r="G725" s="4">
+      <c r="G725" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H725" s="4">
+      <c r="H725" s="5">
         <v>0.39400000000000002</v>
       </c>
       <c r="I725">
@@ -50837,10 +50855,10 @@
       <c r="F727">
         <v>2024</v>
       </c>
-      <c r="G727" s="4">
+      <c r="G727" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H727" s="4">
+      <c r="H727" s="5">
         <v>0.34599999999999997</v>
       </c>
       <c r="I727">
@@ -50970,10 +50988,10 @@
       <c r="F729">
         <v>2024</v>
       </c>
-      <c r="G729" s="4">
+      <c r="G729" s="5">
         <v>0.156</v>
       </c>
-      <c r="H729" s="4">
+      <c r="H729" s="5">
         <v>0.33300000000000002</v>
       </c>
       <c r="I729">
@@ -51103,10 +51121,10 @@
       <c r="F731">
         <v>2024</v>
       </c>
-      <c r="G731" s="4">
+      <c r="G731" s="5">
         <v>0.109</v>
       </c>
-      <c r="H731" s="4">
+      <c r="H731" s="5">
         <v>3.9E-2</v>
       </c>
       <c r="I731">
@@ -51239,10 +51257,10 @@
       <c r="F733">
         <v>2024</v>
       </c>
-      <c r="G733" s="4">
+      <c r="G733" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="H733" s="4">
+      <c r="H733" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="I733">
@@ -51375,10 +51393,10 @@
       <c r="F735">
         <v>2024</v>
       </c>
-      <c r="G735" s="4">
+      <c r="G735" s="5">
         <v>0.443</v>
       </c>
-      <c r="H735" s="4">
+      <c r="H735" s="5">
         <v>0.215</v>
       </c>
       <c r="I735">
@@ -51508,10 +51526,10 @@
       <c r="F737">
         <v>2024</v>
       </c>
-      <c r="G737" s="4">
+      <c r="G737" s="5">
         <v>0.255</v>
       </c>
-      <c r="H737" s="4">
+      <c r="H737" s="5">
         <v>0.14399999999999999</v>
       </c>
       <c r="I737">
@@ -51644,10 +51662,10 @@
       <c r="F739">
         <v>2024</v>
       </c>
-      <c r="G739" s="4">
+      <c r="G739" s="5">
         <v>0.19500000000000001</v>
       </c>
-      <c r="H739" s="4">
+      <c r="H739" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I739">
@@ -51780,10 +51798,10 @@
       <c r="F741">
         <v>2024</v>
       </c>
-      <c r="G741" s="4">
+      <c r="G741" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="H741" s="4">
+      <c r="H741" s="5">
         <v>0.40699999999999997</v>
       </c>
       <c r="I741">
@@ -51916,10 +51934,10 @@
       <c r="F743">
         <v>2024</v>
       </c>
-      <c r="G743" s="4">
+      <c r="G743" s="5">
         <v>0.215</v>
       </c>
-      <c r="H743" s="4">
+      <c r="H743" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I743">
@@ -52049,10 +52067,10 @@
       <c r="F745">
         <v>2024</v>
       </c>
-      <c r="G745" s="4">
+      <c r="G745" s="5">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H745" s="4">
+      <c r="H745" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I745">
@@ -52182,10 +52200,10 @@
       <c r="F747">
         <v>2024</v>
       </c>
-      <c r="G747" s="4">
+      <c r="G747" s="5">
         <v>0.38600000000000001</v>
       </c>
-      <c r="H747" s="4">
+      <c r="H747" s="5">
         <v>0.25800000000000001</v>
       </c>
       <c r="I747">
@@ -52312,10 +52330,10 @@
       <c r="F749">
         <v>2024</v>
       </c>
-      <c r="G749" s="4">
+      <c r="G749" s="5">
         <v>0.17799999999999999</v>
       </c>
-      <c r="H749" s="4">
+      <c r="H749" s="5">
         <v>0.39100000000000001</v>
       </c>
       <c r="I749">
@@ -52448,10 +52466,10 @@
       <c r="F751">
         <v>2024</v>
       </c>
-      <c r="G751" s="4">
+      <c r="G751" s="5">
         <v>0.377</v>
       </c>
-      <c r="H751" s="4">
+      <c r="H751" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I751">
@@ -52584,10 +52602,10 @@
       <c r="F753">
         <v>2024</v>
       </c>
-      <c r="G753" s="4">
+      <c r="G753" s="5">
         <v>0.31</v>
       </c>
-      <c r="H753" s="4">
+      <c r="H753" s="5">
         <v>0.20100000000000001</v>
       </c>
       <c r="I753">
@@ -52717,10 +52735,10 @@
       <c r="F755">
         <v>2024</v>
       </c>
-      <c r="G755" s="4">
+      <c r="G755" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H755" s="4">
+      <c r="H755" s="5">
         <v>0.30399999999999999</v>
       </c>
       <c r="I755">
@@ -52850,10 +52868,10 @@
       <c r="F757">
         <v>2024</v>
       </c>
-      <c r="G757" s="4">
+      <c r="G757" s="5">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H757" s="4">
+      <c r="H757" s="5">
         <v>0.26</v>
       </c>
       <c r="I757">
@@ -52986,10 +53004,10 @@
       <c r="F759">
         <v>2024</v>
       </c>
-      <c r="G759" s="4">
+      <c r="G759" s="5">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H759" s="4">
+      <c r="H759" s="5">
         <v>0.33200000000000002</v>
       </c>
       <c r="I759">
@@ -53122,10 +53140,10 @@
       <c r="F761">
         <v>2024</v>
       </c>
-      <c r="G761" s="4">
+      <c r="G761" s="5">
         <v>0.24</v>
       </c>
-      <c r="H761" s="4">
+      <c r="H761" s="5">
         <v>2.4E-2</v>
       </c>
       <c r="I761">
@@ -53258,10 +53276,10 @@
       <c r="F763">
         <v>2024</v>
       </c>
-      <c r="G763" s="4">
+      <c r="G763" s="5">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H763" s="4">
+      <c r="H763" s="5">
         <v>0.43</v>
       </c>
       <c r="I763">
@@ -53394,10 +53412,10 @@
       <c r="F765">
         <v>2024</v>
       </c>
-      <c r="G765" s="4">
+      <c r="G765" s="5">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H765" s="4">
+      <c r="H765" s="5">
         <v>0.36</v>
       </c>
       <c r="I765">
@@ -53530,10 +53548,10 @@
       <c r="F767">
         <v>2024</v>
       </c>
-      <c r="G767" s="4">
+      <c r="G767" s="5">
         <v>0.193</v>
       </c>
-      <c r="H767" s="4">
+      <c r="H767" s="5">
         <v>0.129</v>
       </c>
       <c r="I767">
@@ -53663,10 +53681,10 @@
       <c r="F769">
         <v>2024</v>
       </c>
-      <c r="G769" s="4">
+      <c r="G769" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H769" s="4">
+      <c r="H769" s="5">
         <v>0.22700000000000001</v>
       </c>
       <c r="I769">
@@ -53799,10 +53817,10 @@
       <c r="F771">
         <v>2024</v>
       </c>
-      <c r="G771" s="4">
+      <c r="G771" s="5">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H771" s="4">
+      <c r="H771" s="5">
         <v>0.19</v>
       </c>
       <c r="I771">
@@ -53932,10 +53950,10 @@
       <c r="F773">
         <v>2024</v>
       </c>
-      <c r="G773" s="4">
+      <c r="G773" s="5">
         <v>0.03</v>
       </c>
-      <c r="H773" s="4">
+      <c r="H773" s="5">
         <v>0.14899999999999999</v>
       </c>
       <c r="I773">
@@ -54068,10 +54086,10 @@
       <c r="F775">
         <v>2024</v>
       </c>
-      <c r="G775" s="4">
+      <c r="G775" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H775" s="4">
+      <c r="H775" s="5">
         <v>0.24099999999999999</v>
       </c>
       <c r="I775">
@@ -54201,10 +54219,10 @@
       <c r="F777">
         <v>2024</v>
       </c>
-      <c r="G777" s="4">
+      <c r="G777" s="5">
         <v>0.27400000000000002</v>
       </c>
-      <c r="H777" s="4">
+      <c r="H777" s="5">
         <v>0.14199999999999999</v>
       </c>
       <c r="I777">
@@ -54337,10 +54355,10 @@
       <c r="F779">
         <v>2024</v>
       </c>
-      <c r="G779" s="4">
+      <c r="G779" s="5">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H779" s="4">
+      <c r="H779" s="5">
         <v>0.124</v>
       </c>
       <c r="I779">
@@ -54473,10 +54491,10 @@
       <c r="F781">
         <v>2024</v>
       </c>
-      <c r="G781" s="4">
+      <c r="G781" s="5">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H781" s="4">
+      <c r="H781" s="5">
         <v>0.192</v>
       </c>
       <c r="I781">
@@ -54609,10 +54627,10 @@
       <c r="F783">
         <v>2024</v>
       </c>
-      <c r="G783" s="4">
+      <c r="G783" s="5">
         <v>0.05</v>
       </c>
-      <c r="H783" s="4">
+      <c r="H783" s="5">
         <v>0.442</v>
       </c>
       <c r="I783">
@@ -54742,10 +54760,10 @@
       <c r="F785">
         <v>2024</v>
       </c>
-      <c r="G785" s="4">
+      <c r="G785" s="5">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H785" s="4">
+      <c r="H785" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I785">
@@ -54875,10 +54893,10 @@
       <c r="F787">
         <v>2024</v>
       </c>
-      <c r="G787" s="4">
+      <c r="G787" s="5">
         <v>0.108</v>
       </c>
-      <c r="H787" s="4">
+      <c r="H787" s="5">
         <v>0.41699999999999998</v>
       </c>
       <c r="I787">
@@ -55008,10 +55026,10 @@
       <c r="F789">
         <v>2024</v>
       </c>
-      <c r="G789" s="4">
+      <c r="G789" s="5">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H789" s="4">
+      <c r="H789" s="5">
         <v>0.3</v>
       </c>
       <c r="I789">
@@ -55138,10 +55156,10 @@
       <c r="F791">
         <v>2024</v>
       </c>
-      <c r="G791" s="4">
+      <c r="G791" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="H791" s="4">
+      <c r="H791" s="5">
         <v>0.13900000000000001</v>
       </c>
       <c r="I791">
@@ -55271,10 +55289,10 @@
       <c r="F793">
         <v>2024</v>
       </c>
-      <c r="G793" s="4">
+      <c r="G793" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H793" s="4">
+      <c r="H793" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I793">
@@ -55404,10 +55422,10 @@
       <c r="F795">
         <v>2024</v>
       </c>
-      <c r="G795" s="4">
+      <c r="G795" s="5">
         <v>0.436</v>
       </c>
-      <c r="H795" s="4">
+      <c r="H795" s="5">
         <v>0.14699999999999999</v>
       </c>
       <c r="I795">
@@ -55537,10 +55555,10 @@
       <c r="F797">
         <v>2024</v>
       </c>
-      <c r="G797" s="4">
+      <c r="G797" s="5">
         <v>0.308</v>
       </c>
-      <c r="H797" s="4">
+      <c r="H797" s="5">
         <v>0.32900000000000001</v>
       </c>
       <c r="I797">
@@ -55670,10 +55688,10 @@
       <c r="F799">
         <v>2024</v>
       </c>
-      <c r="G799" s="4">
+      <c r="G799" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="H799" s="4">
+      <c r="H799" s="5">
         <v>0.40799999999999997</v>
       </c>
       <c r="I799">
@@ -55800,10 +55818,10 @@
       <c r="F801">
         <v>2024</v>
       </c>
-      <c r="G801" s="4">
+      <c r="G801" s="5">
         <v>0.33900000000000002</v>
       </c>
-      <c r="H801" s="4">
+      <c r="H801" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="I801">
@@ -55933,10 +55951,10 @@
       <c r="F803">
         <v>2024</v>
       </c>
-      <c r="G803" s="4">
+      <c r="G803" s="5">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H803" s="4">
+      <c r="H803" s="5">
         <v>0.20899999999999999</v>
       </c>
       <c r="I803">
